--- a/capiq_data/in_process_data/IQ319404.xlsx
+++ b/capiq_data/in_process_data/IQ319404.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B0E75-671B-402D-81D6-5D74155245E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54719ACB-BF84-4646-9859-CF827315A9C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"fff5441e-59a5-4422-9bbe-f2ff972ed445"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"af4a9b0d-5eab-4cf5-96be-f420d7e5d047"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>22.056000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>398.97199999999998</v>
+        <v>120.47499999999999</v>
       </c>
       <c r="E2">
-        <v>172.989</v>
+        <v>54.273000000000003</v>
       </c>
       <c r="F2">
-        <v>90.227999999999994</v>
+        <v>23.454999999999998</v>
       </c>
       <c r="G2">
-        <v>222.58199999999999</v>
+        <v>80.195999999999998</v>
       </c>
       <c r="H2">
-        <v>1239.8810000000001</v>
+        <v>296.59100000000001</v>
       </c>
       <c r="I2">
-        <v>29.221</v>
+        <v>26.515000000000001</v>
       </c>
       <c r="J2">
-        <v>234.08699999999999</v>
+        <v>74.507000000000005</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>170.04599999999999</v>
+        <v>63.41</v>
       </c>
       <c r="O2">
-        <v>571.23199999999997</v>
+        <v>171.857</v>
       </c>
       <c r="P2">
-        <v>271.21699999999998</v>
+        <v>83.542000000000002</v>
       </c>
       <c r="Q2">
-        <v>0.39300000000000002</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>11179</v>
+        <v>5909</v>
       </c>
       <c r="T2">
-        <v>668.649</v>
+        <v>124.73399999999999</v>
       </c>
       <c r="U2">
-        <v>5.45</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="V2">
-        <v>30.911000000000001</v>
+        <v>10.965999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>5.4180000000000001</v>
+        <v>-1.645</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>22.056000000000001</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>21.573</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D3">
-        <v>422.67899999999997</v>
+        <v>120.27</v>
       </c>
       <c r="E3">
-        <v>196.69399999999999</v>
+        <v>58.295000000000002</v>
       </c>
       <c r="F3">
-        <v>96.320999999999998</v>
+        <v>22.734000000000002</v>
       </c>
       <c r="G3">
-        <v>330.33699999999999</v>
+        <v>81.617000000000004</v>
       </c>
       <c r="H3">
-        <v>1383.902</v>
+        <v>303.11200000000002</v>
       </c>
       <c r="I3">
-        <v>48.929000000000002</v>
+        <v>18.756</v>
       </c>
       <c r="J3">
-        <v>252.143</v>
+        <v>84.549000000000007</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +972,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-77.301000000000002</v>
+        <v>-2.7050000000000001</v>
       </c>
       <c r="N3">
-        <v>227.03800000000001</v>
+        <v>58.963000000000001</v>
       </c>
       <c r="O3">
-        <v>645.28</v>
+        <v>177.37700000000001</v>
       </c>
       <c r="P3">
-        <v>288.916</v>
+        <v>93.6</v>
       </c>
       <c r="Q3">
-        <v>82.692999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>738.62199999999996</v>
+        <v>125.735</v>
       </c>
       <c r="U3">
-        <v>88.143000000000001</v>
+        <v>1.089</v>
       </c>
       <c r="V3">
-        <v>73.807000000000002</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>66.099000000000004</v>
+        <v>10.058</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>21.573</v>
+        <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>39.383000000000003</v>
+        <v>3.097</v>
       </c>
       <c r="D4">
-        <v>480.255</v>
+        <v>128.60499999999999</v>
       </c>
       <c r="E4">
-        <v>212.535</v>
+        <v>58.856000000000002</v>
       </c>
       <c r="F4">
-        <v>125.471</v>
+        <v>25.72</v>
       </c>
       <c r="G4">
-        <v>296.13600000000002</v>
+        <v>81.308000000000007</v>
       </c>
       <c r="H4">
-        <v>1409.5039999999999</v>
+        <v>305.94900000000001</v>
       </c>
       <c r="I4">
-        <v>41.156999999999996</v>
+        <v>19.672000000000001</v>
       </c>
       <c r="J4">
-        <v>227.143</v>
+        <v>82.745000000000005</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>212.38300000000001</v>
+        <v>60.076000000000001</v>
       </c>
       <c r="O4">
-        <v>631.49900000000002</v>
+        <v>177.11699999999999</v>
       </c>
       <c r="P4">
-        <v>265.24200000000002</v>
+        <v>90.941000000000003</v>
       </c>
       <c r="Q4">
-        <v>-59.478999999999999</v>
+        <v>1.8069999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>778.005</v>
+        <v>128.83199999999999</v>
       </c>
       <c r="U4">
-        <v>28.664000000000001</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="V4">
-        <v>45.372999999999998</v>
+        <v>15.13</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-23.673999999999999</v>
+        <v>-2.6589999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>39.383000000000003</v>
+        <v>3.097</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>38.631</v>
+        <v>3.6589999999999998</v>
       </c>
       <c r="D5">
-        <v>494.47500000000002</v>
+        <v>128.96</v>
       </c>
       <c r="E5">
-        <v>222.52500000000001</v>
+        <v>61.113999999999997</v>
       </c>
       <c r="F5">
-        <v>131.339</v>
+        <v>27.995999999999999</v>
       </c>
       <c r="G5">
-        <v>318.589</v>
+        <v>86.12</v>
       </c>
       <c r="H5">
-        <v>1473.1980000000001</v>
+        <v>310.63499999999999</v>
       </c>
       <c r="I5">
-        <v>50.707000000000001</v>
+        <v>22.228000000000002</v>
       </c>
       <c r="J5">
-        <v>227.143</v>
+        <v>81.004000000000005</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>220.11699999999999</v>
+        <v>62.631999999999998</v>
       </c>
       <c r="O5">
-        <v>656.56200000000001</v>
+        <v>178.14400000000001</v>
       </c>
       <c r="P5">
-        <v>264.47399999999999</v>
+        <v>88.938000000000002</v>
       </c>
       <c r="Q5">
-        <v>13.598000000000001</v>
+        <v>3.121</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>11980</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>816.63599999999997</v>
+        <v>132.49100000000001</v>
       </c>
       <c r="U5">
-        <v>42.262</v>
+        <v>6.0170000000000003</v>
       </c>
       <c r="V5">
-        <v>81.168999999999997</v>
+        <v>12.583</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-1.272</v>
+        <v>-2.0030000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>38.631</v>
+        <v>3.6589999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>39.883000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="D6">
-        <v>485.13200000000001</v>
+        <v>124.404</v>
       </c>
       <c r="E6">
-        <v>213.48099999999999</v>
+        <v>51.061</v>
       </c>
       <c r="F6">
-        <v>123.095</v>
+        <v>25.077999999999999</v>
       </c>
       <c r="G6">
-        <v>331.85199999999998</v>
+        <v>73.866</v>
       </c>
       <c r="H6">
-        <v>1513.0740000000001</v>
+        <v>310.83999999999997</v>
       </c>
       <c r="I6">
-        <v>42.095999999999997</v>
+        <v>13.798999999999999</v>
       </c>
       <c r="J6">
-        <v>229.83099999999999</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>204.81</v>
+        <v>50.566000000000003</v>
       </c>
       <c r="O6">
-        <v>656.55499999999995</v>
+        <v>174.20099999999999</v>
       </c>
       <c r="P6">
-        <v>269.185</v>
+        <v>98.421999999999997</v>
       </c>
       <c r="Q6">
-        <v>33.588000000000001</v>
+        <v>-5.2560000000000002</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>12022</v>
+        <v>6106</v>
       </c>
       <c r="T6">
-        <v>856.51900000000001</v>
+        <v>136.63900000000001</v>
       </c>
       <c r="U6">
-        <v>75.849999999999994</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="V6">
-        <v>77.584999999999994</v>
+        <v>2.101</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-3.355</v>
+        <v>9.484</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>39.883000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>31.094999999999999</v>
+        <v>2.242</v>
       </c>
       <c r="D7">
-        <v>502.81900000000002</v>
+        <v>127.14700000000001</v>
       </c>
       <c r="E7">
-        <v>228.398</v>
+        <v>58.908000000000001</v>
       </c>
       <c r="F7">
-        <v>120.58199999999999</v>
+        <v>25.613</v>
       </c>
       <c r="G7">
-        <v>327.9</v>
+        <v>76.555000000000007</v>
       </c>
       <c r="H7">
-        <v>1574.192</v>
+        <v>317.48200000000003</v>
       </c>
       <c r="I7">
-        <v>54.677</v>
+        <v>15.407999999999999</v>
       </c>
       <c r="J7">
-        <v>219.11699999999999</v>
+        <v>85.956000000000003</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-11.199</v>
+        <v>-2.4239999999999999</v>
       </c>
       <c r="N7">
-        <v>251.268</v>
+        <v>58.241</v>
       </c>
       <c r="O7">
-        <v>686.57799999999997</v>
+        <v>178.577</v>
       </c>
       <c r="P7">
-        <v>258.20299999999997</v>
+        <v>95.998000000000005</v>
       </c>
       <c r="Q7">
-        <v>-21.631</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>887.61400000000003</v>
+        <v>138.905</v>
       </c>
       <c r="U7">
-        <v>54.219000000000001</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="V7">
-        <v>78.326999999999998</v>
+        <v>14.109</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-11.193</v>
+        <v>-2.4</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>31.094999999999999</v>
+        <v>2.242</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>47.832000000000001</v>
+        <v>4.3609999999999998</v>
       </c>
       <c r="D8">
-        <v>547.452</v>
+        <v>139.66900000000001</v>
       </c>
       <c r="E8">
-        <v>241.43299999999999</v>
+        <v>63.676000000000002</v>
       </c>
       <c r="F8">
-        <v>152.511</v>
+        <v>30.481000000000002</v>
       </c>
       <c r="G8">
-        <v>301.15800000000002</v>
+        <v>80.266000000000005</v>
       </c>
       <c r="H8">
-        <v>1639.644</v>
+        <v>334.96600000000001</v>
       </c>
       <c r="I8">
-        <v>62.54</v>
+        <v>22.972999999999999</v>
       </c>
       <c r="J8">
-        <v>228.14699999999999</v>
+        <v>81.328000000000003</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>244.45400000000001</v>
+        <v>75.474999999999994</v>
       </c>
       <c r="O8">
-        <v>704.19799999999998</v>
+        <v>191.684</v>
       </c>
       <c r="P8">
-        <v>267.94299999999998</v>
+        <v>98.522999999999996</v>
       </c>
       <c r="Q8">
-        <v>-43.204000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>935.44600000000003</v>
+        <v>143.28200000000001</v>
       </c>
       <c r="U8">
-        <v>11.015000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="V8">
-        <v>66.094999999999999</v>
+        <v>18.946000000000002</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>8.8569999999999993</v>
+        <v>2.5409999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>47.832000000000001</v>
+        <v>4.3609999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>51.043999999999997</v>
+        <v>6.3959999999999999</v>
       </c>
       <c r="D9">
-        <v>550.51099999999997</v>
+        <v>149.93100000000001</v>
       </c>
       <c r="E9">
-        <v>248.25399999999999</v>
+        <v>67.432000000000002</v>
       </c>
       <c r="F9">
-        <v>152.22399999999999</v>
+        <v>34.15</v>
       </c>
       <c r="G9">
-        <v>305.73899999999998</v>
+        <v>84.400999999999996</v>
       </c>
       <c r="H9">
-        <v>1714.6220000000001</v>
+        <v>351.99799999999999</v>
       </c>
       <c r="I9">
-        <v>56.93</v>
+        <v>19.231000000000002</v>
       </c>
       <c r="J9">
-        <v>243.49700000000001</v>
+        <v>83.814999999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>237.62799999999999</v>
+        <v>82.870999999999995</v>
       </c>
       <c r="O9">
-        <v>728.13400000000001</v>
+        <v>202.309</v>
       </c>
       <c r="P9">
-        <v>282.81099999999998</v>
+        <v>107.824</v>
       </c>
       <c r="Q9">
-        <v>-4.1130000000000004</v>
+        <v>-0.246</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>986.48800000000006</v>
+        <v>149.68899999999999</v>
       </c>
       <c r="U9">
-        <v>6.9020000000000001</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="V9">
-        <v>78.316000000000003</v>
+        <v>10.831</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>14.866</v>
+        <v>9.3119999999999994</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>51.043999999999997</v>
+        <v>6.3959999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>39.481000000000002</v>
+        <v>5.4630000000000001</v>
       </c>
       <c r="D10">
-        <v>533.79700000000003</v>
+        <v>149.71199999999999</v>
       </c>
       <c r="E10">
-        <v>219.03899999999999</v>
+        <v>63.843000000000004</v>
       </c>
       <c r="F10">
-        <v>136.161</v>
+        <v>31.977</v>
       </c>
       <c r="G10">
-        <v>275.02800000000002</v>
+        <v>114.545</v>
       </c>
       <c r="H10">
-        <v>1712.5139999999999</v>
+        <v>389.47800000000001</v>
       </c>
       <c r="I10">
-        <v>44.890999999999998</v>
+        <v>16.841000000000001</v>
       </c>
       <c r="J10">
-        <v>201.429</v>
+        <v>82.084000000000003</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>225.13900000000001</v>
+        <v>63.13</v>
       </c>
       <c r="O10">
-        <v>686.54499999999996</v>
+        <v>185.91499999999999</v>
       </c>
       <c r="P10">
-        <v>240.40700000000001</v>
+        <v>93.222999999999999</v>
       </c>
       <c r="Q10">
-        <v>5.9550000000000001</v>
+        <v>18.43</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>13016</v>
+        <v>6895</v>
       </c>
       <c r="T10">
-        <v>1025.9690000000001</v>
+        <v>203.56299999999999</v>
       </c>
       <c r="U10">
-        <v>12.856999999999999</v>
+        <v>19.259</v>
       </c>
       <c r="V10">
-        <v>105.318</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-42.404000000000003</v>
+        <v>33.81</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>39.481000000000002</v>
+        <v>5.4630000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>40.552999999999997</v>
+        <v>4.2469999999999999</v>
       </c>
       <c r="D11">
-        <v>538.41600000000005</v>
+        <v>152.86500000000001</v>
       </c>
       <c r="E11">
-        <v>248.22499999999999</v>
+        <v>71.141000000000005</v>
       </c>
       <c r="F11">
-        <v>139.67500000000001</v>
+        <v>30.805</v>
       </c>
       <c r="G11">
-        <v>324.964</v>
+        <v>101.67400000000001</v>
       </c>
       <c r="H11">
-        <v>1761.192</v>
+        <v>397.22399999999999</v>
       </c>
       <c r="I11">
-        <v>41.470999999999997</v>
+        <v>17.763999999999999</v>
       </c>
       <c r="J11">
-        <v>180.714</v>
+        <v>73.203000000000003</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-21.074000000000002</v>
+        <v>-4.8719999999999999</v>
       </c>
       <c r="N11">
-        <v>254.13</v>
+        <v>74.239000000000004</v>
       </c>
       <c r="O11">
-        <v>694.67</v>
+        <v>188.65299999999999</v>
       </c>
       <c r="P11">
-        <v>219.333</v>
+        <v>91.001000000000005</v>
       </c>
       <c r="Q11">
-        <v>16.326000000000001</v>
+        <v>-12.71</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1066.5219999999999</v>
+        <v>208.571</v>
       </c>
       <c r="U11">
-        <v>29.183</v>
+        <v>6.5490000000000004</v>
       </c>
       <c r="V11">
-        <v>63.533999999999999</v>
+        <v>17.234000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-21.074000000000002</v>
+        <v>-1.4610000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>40.552999999999997</v>
+        <v>4.2469999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>58.255000000000003</v>
+        <v>6.5090000000000003</v>
       </c>
       <c r="D12">
-        <v>590.30399999999997</v>
+        <v>163.81700000000001</v>
       </c>
       <c r="E12">
-        <v>267.69</v>
+        <v>69.275999999999996</v>
       </c>
       <c r="F12">
-        <v>171.33</v>
+        <v>36.905000000000001</v>
       </c>
       <c r="G12">
-        <v>324.08199999999999</v>
+        <v>93.87</v>
       </c>
       <c r="H12">
-        <v>1854.73</v>
+        <v>414.23599999999999</v>
       </c>
       <c r="I12">
-        <v>66.718000000000004</v>
+        <v>15.867000000000001</v>
       </c>
       <c r="J12">
-        <v>190.39400000000001</v>
+        <v>82.588999999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>273.12799999999999</v>
+        <v>74.671000000000006</v>
       </c>
       <c r="O12">
-        <v>729.95299999999997</v>
+        <v>199.07900000000001</v>
       </c>
       <c r="P12">
-        <v>228.797</v>
+        <v>100.336</v>
       </c>
       <c r="Q12">
-        <v>-21.812999999999999</v>
+        <v>-5.6</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1124.777</v>
+        <v>215.15700000000001</v>
       </c>
       <c r="U12">
-        <v>7.37</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="V12">
-        <v>90.33</v>
+        <v>17.824999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>9.4640000000000004</v>
+        <v>9.4120000000000008</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>58.255000000000003</v>
+        <v>6.5090000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>60.149000000000001</v>
+        <v>9.1159999999999997</v>
       </c>
       <c r="D13">
-        <v>616.45799999999997</v>
+        <v>176.87299999999999</v>
       </c>
       <c r="E13">
-        <v>268.22300000000001</v>
+        <v>75.588999999999999</v>
       </c>
       <c r="F13">
-        <v>178.738</v>
+        <v>42.316000000000003</v>
       </c>
       <c r="G13">
-        <v>333.27600000000001</v>
+        <v>107.791</v>
       </c>
       <c r="H13">
-        <v>1904.6790000000001</v>
+        <v>435.81599999999997</v>
       </c>
       <c r="I13">
-        <v>54.512</v>
+        <v>19.236999999999998</v>
       </c>
       <c r="J13">
-        <v>167.71</v>
+        <v>76.665000000000006</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>248.81100000000001</v>
+        <v>86.34</v>
       </c>
       <c r="O13">
-        <v>719.75300000000004</v>
+        <v>211.36</v>
       </c>
       <c r="P13">
-        <v>206.113</v>
+        <v>99.335999999999999</v>
       </c>
       <c r="Q13">
-        <v>4.734</v>
+        <v>7.6429999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1184.9259999999999</v>
+        <v>224.45599999999999</v>
       </c>
       <c r="U13">
-        <v>12.103999999999999</v>
+        <v>8.5920000000000005</v>
       </c>
       <c r="V13">
-        <v>99.522000000000006</v>
+        <v>26.885999999999999</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-22.684000000000001</v>
+        <v>-0.81699999999999995</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>60.149000000000001</v>
+        <v>9.1159999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>47.155999999999999</v>
+        <v>7.7279999999999998</v>
       </c>
       <c r="D14">
-        <v>592.47</v>
+        <v>173.976</v>
       </c>
       <c r="E14">
-        <v>248.06899999999999</v>
+        <v>73.036000000000001</v>
       </c>
       <c r="F14">
-        <v>150.434</v>
+        <v>37.116999999999997</v>
       </c>
       <c r="G14">
-        <v>332.97899999999998</v>
+        <v>101.37</v>
       </c>
       <c r="H14">
-        <v>1932.0889999999999</v>
+        <v>434.55900000000003</v>
       </c>
       <c r="I14">
-        <v>36.787999999999997</v>
+        <v>12.185</v>
       </c>
       <c r="J14">
-        <v>155.714</v>
+        <v>74.986000000000004</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>232.12200000000001</v>
+        <v>78.331999999999994</v>
       </c>
       <c r="O14">
-        <v>700.00699999999995</v>
+        <v>202.018</v>
       </c>
       <c r="P14">
-        <v>191.429</v>
+        <v>97.426000000000002</v>
       </c>
       <c r="Q14">
-        <v>18.07</v>
+        <v>-7.5410000000000004</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>14073</v>
+        <v>7513</v>
       </c>
       <c r="T14">
-        <v>1232.0820000000001</v>
+        <v>232.541</v>
       </c>
       <c r="U14">
-        <v>30.173999999999999</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="V14">
-        <v>97.28</v>
+        <v>13.119</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-14.683999999999999</v>
+        <v>-1.9650000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>47.155999999999999</v>
+        <v>7.7279999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>45.887</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="D15">
-        <v>620.27599999999995</v>
+        <v>182.76900000000001</v>
       </c>
       <c r="E15">
-        <v>285.24900000000002</v>
+        <v>80.763000000000005</v>
       </c>
       <c r="F15">
-        <v>164.42500000000001</v>
+        <v>38.942999999999998</v>
       </c>
       <c r="G15">
-        <v>388.97399999999999</v>
+        <v>107.869</v>
       </c>
       <c r="H15">
-        <v>2031.768</v>
+        <v>453.82100000000003</v>
       </c>
       <c r="I15">
-        <v>71.763999999999996</v>
+        <v>22.771000000000001</v>
       </c>
       <c r="J15">
-        <v>145</v>
+        <v>68.884</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-10.715</v>
+        <v>-10.281000000000001</v>
       </c>
       <c r="N15">
-        <v>293.505</v>
+        <v>96.811000000000007</v>
       </c>
       <c r="O15">
-        <v>753.79899999999998</v>
+        <v>215.56800000000001</v>
       </c>
       <c r="P15">
-        <v>180.714</v>
+        <v>90.781000000000006</v>
       </c>
       <c r="Q15">
-        <v>11.07</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1277.9690000000001</v>
+        <v>238.25299999999999</v>
       </c>
       <c r="U15">
-        <v>41.244</v>
+        <v>1.054</v>
       </c>
       <c r="V15">
-        <v>99.567999999999998</v>
+        <v>29.905999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-10.715</v>
+        <v>-6.6449999999999996</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>45.887</v>
+        <v>5.7119999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>73.849000000000004</v>
+        <v>10.461</v>
       </c>
       <c r="D16">
-        <v>702.98699999999997</v>
+        <v>202.12899999999999</v>
       </c>
       <c r="E16">
-        <v>302.262</v>
+        <v>87.941000000000003</v>
       </c>
       <c r="F16">
-        <v>210.989</v>
+        <v>47.892000000000003</v>
       </c>
       <c r="G16">
-        <v>382.37299999999999</v>
+        <v>115.616</v>
       </c>
       <c r="H16">
-        <v>2124.0630000000001</v>
+        <v>496.44</v>
       </c>
       <c r="I16">
-        <v>63.783000000000001</v>
+        <v>31.311</v>
       </c>
       <c r="J16">
-        <v>164</v>
+        <v>85.215999999999994</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>297.56299999999999</v>
+        <v>107.96299999999999</v>
       </c>
       <c r="O16">
-        <v>772.245</v>
+        <v>247.63300000000001</v>
       </c>
       <c r="P16">
-        <v>199.714</v>
+        <v>107.31</v>
       </c>
       <c r="Q16">
-        <v>-21.454999999999998</v>
+        <v>0.126</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1351.818</v>
+        <v>248.80699999999999</v>
       </c>
       <c r="U16">
-        <v>19.789000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="V16">
-        <v>82.105000000000004</v>
+        <v>28.782</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>19</v>
+        <v>16.622</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>73.849000000000004</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>77.909000000000006</v>
+        <v>12.215</v>
       </c>
       <c r="D17">
-        <v>743.58600000000001</v>
+        <v>215.11699999999999</v>
       </c>
       <c r="E17">
-        <v>322.39499999999998</v>
+        <v>93.906000000000006</v>
       </c>
       <c r="F17">
-        <v>224.70599999999999</v>
+        <v>51.247</v>
       </c>
       <c r="G17">
-        <v>394.601</v>
+        <v>122.652</v>
       </c>
       <c r="H17">
-        <v>2188.5390000000002</v>
+        <v>502.17399999999998</v>
       </c>
       <c r="I17">
-        <v>47.284999999999997</v>
+        <v>26.873000000000001</v>
       </c>
       <c r="J17">
-        <v>148.203</v>
+        <v>58.957000000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>286.601</v>
+        <v>102.553</v>
       </c>
       <c r="O17">
-        <v>758.81200000000001</v>
+        <v>221.398</v>
       </c>
       <c r="P17">
-        <v>183.917</v>
+        <v>81.003</v>
       </c>
       <c r="Q17">
-        <v>-11.62</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1429.7270000000001</v>
+        <v>280.77600000000001</v>
       </c>
       <c r="U17">
-        <v>8.1690000000000005</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="V17">
-        <v>96.341999999999999</v>
+        <v>18.347000000000001</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-15.797000000000001</v>
+        <v>-6.5529999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>77.909000000000006</v>
+        <v>12.215</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>69.869</v>
+        <v>10.603999999999999</v>
       </c>
       <c r="D18">
-        <v>721.048</v>
+        <v>224.036</v>
       </c>
       <c r="E18">
-        <v>303.17</v>
+        <v>94.495000000000005</v>
       </c>
       <c r="F18">
-        <v>208.327</v>
+        <v>51.93</v>
       </c>
       <c r="G18">
-        <v>403.77199999999999</v>
+        <v>122.53700000000001</v>
       </c>
       <c r="H18">
-        <v>2206.866</v>
+        <v>504.733</v>
       </c>
       <c r="I18">
-        <v>45.314</v>
+        <v>25.305</v>
       </c>
       <c r="J18">
-        <v>120</v>
+        <v>57.423999999999999</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>255.63800000000001</v>
+        <v>93.82</v>
       </c>
       <c r="O18">
-        <v>712.80200000000002</v>
+        <v>213.20500000000001</v>
       </c>
       <c r="P18">
-        <v>155.714</v>
+        <v>79.453999999999994</v>
       </c>
       <c r="Q18">
-        <v>26.617999999999999</v>
+        <v>-2.3519999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>16443</v>
+        <v>8497</v>
       </c>
       <c r="T18">
-        <v>1494.0640000000001</v>
+        <v>291.52800000000002</v>
       </c>
       <c r="U18">
-        <v>34.786999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="V18">
-        <v>113.65900000000001</v>
+        <v>12.81</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-33.734999999999999</v>
+        <v>-1.472</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,122 +2259,122 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>69.869</v>
+        <v>10.603999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>62.524000000000001</v>
+        <v>8.9350000000000005</v>
       </c>
       <c r="D19">
-        <v>696.245</v>
+        <v>236.77</v>
       </c>
       <c r="E19">
-        <v>317.70499999999998</v>
+        <v>110.46599999999999</v>
       </c>
       <c r="F19">
-        <v>200.553</v>
+        <v>50.886000000000003</v>
       </c>
       <c r="G19">
-        <v>499.89299999999997</v>
+        <v>145.001</v>
       </c>
       <c r="H19">
-        <v>2340.384</v>
+        <v>566.13599999999997</v>
       </c>
       <c r="I19">
-        <v>48.954999999999998</v>
+        <v>32.292000000000002</v>
       </c>
       <c r="J19">
-        <v>120</v>
+        <v>82.694999999999993</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-17.332999999999998</v>
       </c>
       <c r="M19">
-        <v>-10.714</v>
+        <v>-10.045999999999999</v>
       </c>
       <c r="N19">
-        <v>321.68200000000002</v>
+        <v>120.73099999999999</v>
       </c>
       <c r="O19">
-        <v>797.12300000000005</v>
+        <v>265.26499999999999</v>
       </c>
       <c r="P19">
-        <v>148.55199999999999</v>
+        <v>102.075</v>
       </c>
       <c r="Q19">
-        <v>78.251000000000005</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1543.261</v>
+        <v>300.87099999999998</v>
       </c>
       <c r="U19">
-        <v>113.038</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="V19">
-        <v>172.59399999999999</v>
+        <v>40.341000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-24.041</v>
+        <v>22.620999999999999</v>
       </c>
       <c r="Y19">
-        <v>0.59599999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>62.524000000000001</v>
+        <v>8.9350000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>85.573999999999998</v>
+        <v>13.916</v>
       </c>
       <c r="D20">
-        <v>762.15099999999995</v>
+        <v>264.346</v>
       </c>
       <c r="E20">
-        <v>330.09100000000001</v>
+        <v>119.539</v>
       </c>
       <c r="F20">
-        <v>239.661</v>
+        <v>63.970999999999997</v>
       </c>
       <c r="G20">
-        <v>421.66500000000002</v>
+        <v>155.70400000000001</v>
       </c>
       <c r="H20">
-        <v>2378.067</v>
+        <v>610.66899999999998</v>
       </c>
       <c r="I20">
-        <v>61.042000000000002</v>
+        <v>29.949000000000002</v>
       </c>
       <c r="J20">
-        <v>118</v>
+        <v>111.557</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>298.86200000000002</v>
+        <v>119.959</v>
       </c>
       <c r="O20">
-        <v>778.30399999999997</v>
+        <v>295.88200000000001</v>
       </c>
       <c r="P20">
-        <v>146.34399999999999</v>
+        <v>131.00800000000001</v>
       </c>
       <c r="Q20">
-        <v>-100.249</v>
+        <v>-1.502</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1599.7629999999999</v>
+        <v>314.78699999999998</v>
       </c>
       <c r="U20">
-        <v>12.789</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="V20">
-        <v>81.631</v>
+        <v>17.143999999999998</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-31.28</v>
+        <v>27.844000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>85.573999999999998</v>
+        <v>13.916</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>84.367999999999995</v>
+        <v>15.935</v>
       </c>
       <c r="D21">
-        <v>779.47400000000005</v>
+        <v>275.07600000000002</v>
       </c>
       <c r="E21">
-        <v>337.70600000000002</v>
+        <v>124.137</v>
       </c>
       <c r="F21">
-        <v>244.654</v>
+        <v>65.424000000000007</v>
       </c>
       <c r="G21">
-        <v>436.20600000000002</v>
+        <v>165.786</v>
       </c>
       <c r="H21">
-        <v>2474.4850000000001</v>
+        <v>640.08799999999997</v>
       </c>
       <c r="I21">
-        <v>58.258000000000003</v>
+        <v>35.679000000000002</v>
       </c>
       <c r="J21">
-        <v>95</v>
+        <v>120.505</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>364.17200000000003</v>
+        <v>122.47</v>
       </c>
       <c r="O21">
-        <v>827.072</v>
+        <v>309.31599999999997</v>
       </c>
       <c r="P21">
-        <v>185.37700000000001</v>
+        <v>139.62899999999999</v>
       </c>
       <c r="Q21">
-        <v>-1.377</v>
+        <v>5.3659999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1647.413</v>
+        <v>330.77199999999999</v>
       </c>
       <c r="U21">
-        <v>11.412000000000001</v>
+        <v>6.4029999999999996</v>
       </c>
       <c r="V21">
-        <v>118.04900000000001</v>
+        <v>32.457000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>2.3149999999999999</v>
+        <v>7.1340000000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>84.367999999999995</v>
+        <v>15.935</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>72.224000000000004</v>
+        <v>14.689</v>
       </c>
       <c r="D22">
-        <v>734.572</v>
+        <v>285.21100000000001</v>
       </c>
       <c r="E22">
-        <v>310.50099999999998</v>
+        <v>124.744</v>
       </c>
       <c r="F22">
-        <v>211.06100000000001</v>
+        <v>60.779000000000003</v>
       </c>
       <c r="G22">
-        <v>381.73</v>
+        <v>150.21299999999999</v>
       </c>
       <c r="H22">
-        <v>2466.5039999999999</v>
+        <v>641.64800000000002</v>
       </c>
       <c r="I22">
-        <v>66.774000000000001</v>
+        <v>30.966999999999999</v>
       </c>
       <c r="J22">
-        <v>107.31699999999999</v>
+        <v>111.026</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>285.40199999999999</v>
+        <v>111.02800000000001</v>
       </c>
       <c r="O22">
-        <v>781.86699999999996</v>
+        <v>296.59699999999998</v>
       </c>
       <c r="P22">
-        <v>133.80500000000001</v>
+        <v>128.95599999999999</v>
       </c>
       <c r="Q22">
-        <v>0.06</v>
+        <v>-5.4169999999999998</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>17931</v>
+        <v>9736</v>
       </c>
       <c r="T22">
-        <v>1684.6369999999999</v>
+        <v>345.05099999999999</v>
       </c>
       <c r="U22">
-        <v>11.472</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="V22">
-        <v>181.60599999999999</v>
+        <v>23.68</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-86.572000000000003</v>
+        <v>-10.489000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2591,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>72.224000000000004</v>
+        <v>14.689</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>60.284999999999997</v>
+        <v>13.02</v>
       </c>
       <c r="D23">
-        <v>707.73299999999995</v>
+        <v>291.63099999999997</v>
       </c>
       <c r="E23">
-        <v>311.64999999999998</v>
+        <v>134.20400000000001</v>
       </c>
       <c r="F23">
-        <v>203.71799999999999</v>
+        <v>63.933</v>
       </c>
       <c r="G23">
-        <v>355.62400000000002</v>
+        <v>164.202</v>
       </c>
       <c r="H23">
-        <v>2515.44</v>
+        <v>709.72</v>
       </c>
       <c r="I23">
-        <v>81.078999999999994</v>
+        <v>42.112000000000002</v>
       </c>
       <c r="J23">
-        <v>99.725999999999999</v>
+        <v>135.88200000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-8.4830000000000005</v>
+        <v>-7.6589999999999998</v>
       </c>
       <c r="N23">
-        <v>323.22300000000001</v>
+        <v>138.137</v>
       </c>
       <c r="O23">
-        <v>815.16399999999999</v>
+        <v>351.649</v>
       </c>
       <c r="P23">
-        <v>125.322</v>
+        <v>152.99799999999999</v>
       </c>
       <c r="Q23">
-        <v>-4.3390000000000004</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1700.2760000000001</v>
+        <v>358.07100000000003</v>
       </c>
       <c r="U23">
-        <v>7.133</v>
+        <v>1.069</v>
       </c>
       <c r="V23">
-        <v>168.393</v>
+        <v>47.807000000000002</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-53.128999999999998</v>
+        <v>24.042000000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>60.284999999999997</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>81.388000000000005</v>
+        <v>21.605</v>
       </c>
       <c r="D24">
-        <v>755.43499999999995</v>
+        <v>330.81200000000001</v>
       </c>
       <c r="E24">
-        <v>319.01900000000001</v>
+        <v>148.952</v>
       </c>
       <c r="F24">
-        <v>239.00899999999999</v>
+        <v>81.826999999999998</v>
       </c>
       <c r="G24">
-        <v>371.85899999999998</v>
+        <v>273.69</v>
       </c>
       <c r="H24">
-        <v>2659.8020000000001</v>
+        <v>865.80499999999995</v>
       </c>
       <c r="I24">
-        <v>79.23</v>
+        <v>38.44</v>
       </c>
       <c r="J24">
-        <v>218.33199999999999</v>
+        <v>267.37</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>291.351</v>
+        <v>136.77600000000001</v>
       </c>
       <c r="O24">
-        <v>918.03300000000002</v>
+        <v>486.12900000000002</v>
       </c>
       <c r="P24">
-        <v>218.33199999999999</v>
+        <v>280.61900000000003</v>
       </c>
       <c r="Q24">
-        <v>3.54</v>
+        <v>3.8439999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1741.769</v>
+        <v>379.67599999999999</v>
       </c>
       <c r="U24">
-        <v>10.673</v>
+        <v>4.9130000000000003</v>
       </c>
       <c r="V24">
-        <v>123.83799999999999</v>
+        <v>28.385000000000002</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>52.634999999999998</v>
+        <v>127.621</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-88.45</v>
       </c>
       <c r="AA24">
-        <v>81.388000000000005</v>
+        <v>21.605</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>85.581000000000003</v>
+        <v>20.103000000000002</v>
       </c>
       <c r="D25">
-        <v>782.61099999999999</v>
+        <v>337.56900000000002</v>
       </c>
       <c r="E25">
-        <v>333.041</v>
+        <v>153.773</v>
       </c>
       <c r="F25">
-        <v>246.35599999999999</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="G25">
-        <v>389.15499999999997</v>
+        <v>267.45400000000001</v>
       </c>
       <c r="H25">
-        <v>2684.348</v>
+        <v>889.88699999999994</v>
       </c>
       <c r="I25">
-        <v>55.145000000000003</v>
+        <v>40.414000000000001</v>
       </c>
       <c r="J25">
-        <v>193.12899999999999</v>
+        <v>262.10899999999998</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>268.97399999999999</v>
+        <v>140.739</v>
       </c>
       <c r="O25">
-        <v>890.87300000000005</v>
+        <v>490.108</v>
       </c>
       <c r="P25">
-        <v>193.12899999999999</v>
+        <v>274.88299999999998</v>
       </c>
       <c r="Q25">
-        <v>4.3410000000000002</v>
+        <v>-1.3089999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1793.4749999999999</v>
+        <v>399.779</v>
       </c>
       <c r="U25">
-        <v>15.013999999999999</v>
+        <v>3.6040000000000001</v>
       </c>
       <c r="V25">
-        <v>117.89700000000001</v>
+        <v>42.476999999999997</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-59.542000000000002</v>
+        <v>-6.3479999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>8.9090000000000007</v>
       </c>
       <c r="AA25">
-        <v>85.581000000000003</v>
+        <v>20.103000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>68.510999999999996</v>
+        <v>17.841000000000001</v>
       </c>
       <c r="D26">
-        <v>745.73800000000006</v>
+        <v>319.41899999999998</v>
       </c>
       <c r="E26">
-        <v>320.08699999999999</v>
+        <v>141.08699999999999</v>
       </c>
       <c r="F26">
-        <v>217.50700000000001</v>
+        <v>113.363</v>
       </c>
       <c r="G26">
-        <v>382.62200000000001</v>
+        <v>256.36700000000002</v>
       </c>
       <c r="H26">
-        <v>2696.2469999999998</v>
+        <v>892.19299999999998</v>
       </c>
       <c r="I26">
-        <v>89.215999999999994</v>
+        <v>37.686</v>
       </c>
       <c r="J26">
-        <v>104.97499999999999</v>
+        <v>261.88499999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>288.63600000000002</v>
+        <v>121.54600000000001</v>
       </c>
       <c r="O26">
-        <v>845.08900000000006</v>
+        <v>474.57299999999998</v>
       </c>
       <c r="P26">
-        <v>104.97499999999999</v>
+        <v>274.58199999999999</v>
       </c>
       <c r="Q26">
-        <v>-4.843</v>
+        <v>-1.04</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>17543</v>
+        <v>10762</v>
       </c>
       <c r="T26">
-        <v>1851.1579999999999</v>
+        <v>417.62</v>
       </c>
       <c r="U26">
-        <v>10.170999999999999</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="V26">
-        <v>155.45500000000001</v>
+        <v>35.941000000000003</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-99.447999999999993</v>
+        <v>-0.30099999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-5.6189999999999998</v>
       </c>
       <c r="AA26">
-        <v>68.510999999999996</v>
+        <v>17.841000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>65.792000000000002</v>
+        <v>13.571</v>
       </c>
       <c r="D27">
-        <v>754.096</v>
+        <v>319.94200000000001</v>
       </c>
       <c r="E27">
-        <v>332.15699999999998</v>
+        <v>146.77600000000001</v>
       </c>
       <c r="F27">
-        <v>219.06100000000001</v>
+        <v>81.688000000000002</v>
       </c>
       <c r="G27">
-        <v>425.07400000000001</v>
+        <v>234.17</v>
       </c>
       <c r="H27">
-        <v>2745.01</v>
+        <v>933.63699999999994</v>
       </c>
       <c r="I27">
-        <v>56.843000000000004</v>
+        <v>51.136000000000003</v>
       </c>
       <c r="J27">
-        <v>45</v>
+        <v>255.18100000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-9.9749999999999996</v>
+        <v>-6.8730000000000002</v>
       </c>
       <c r="N27">
-        <v>334.78500000000003</v>
+        <v>152.499</v>
       </c>
       <c r="O27">
-        <v>835.64700000000005</v>
+        <v>502.44600000000003</v>
       </c>
       <c r="P27">
-        <v>95</v>
+        <v>267.709</v>
       </c>
       <c r="Q27">
-        <v>37.380000000000003</v>
+        <v>-0.57399999999999995</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1909.3630000000001</v>
+        <v>431.19099999999997</v>
       </c>
       <c r="U27">
-        <v>47.551000000000002</v>
+        <v>1.99</v>
       </c>
       <c r="V27">
-        <v>110.809</v>
+        <v>56.588999999999999</v>
       </c>
       <c r="W27">
-        <v>-8.2349999999999994</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-18.260000000000002</v>
+        <v>-6.8730000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>30.89</v>
       </c>
       <c r="AA27">
-        <v>65.792000000000002</v>
+        <v>13.571</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>98.418000000000006</v>
+        <v>22.539000000000001</v>
       </c>
       <c r="D28">
-        <v>839.91200000000003</v>
+        <v>359.61700000000002</v>
       </c>
       <c r="E28">
-        <v>363.80700000000002</v>
+        <v>158.27000000000001</v>
       </c>
       <c r="F28">
-        <v>279.56400000000002</v>
+        <v>99.091999999999999</v>
       </c>
       <c r="G28">
-        <v>444.61200000000002</v>
+        <v>211.304</v>
       </c>
       <c r="H28">
-        <v>2840.1979999999999</v>
+        <v>956.70399999999995</v>
       </c>
       <c r="I28">
-        <v>54.234000000000002</v>
+        <v>45.451999999999998</v>
       </c>
       <c r="J28">
-        <v>45</v>
+        <v>255.02199999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>344.41</v>
+        <v>147.28200000000001</v>
       </c>
       <c r="O28">
-        <v>847.20699999999999</v>
+        <v>502.97399999999999</v>
       </c>
       <c r="P28">
-        <v>95</v>
+        <v>267.37</v>
       </c>
       <c r="Q28">
-        <v>-13.718</v>
+        <v>-0.70099999999999996</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1992.991</v>
+        <v>453.73</v>
       </c>
       <c r="U28">
-        <v>33.832999999999998</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="V28">
-        <v>127.705</v>
+        <v>26.815000000000001</v>
       </c>
       <c r="W28">
-        <v>-8.234</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-15.663</v>
+        <v>-0.33900000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>38.744999999999997</v>
       </c>
       <c r="AA28">
-        <v>98.418000000000006</v>
+        <v>22.539000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>102.31399999999999</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="D29">
-        <v>872.98699999999997</v>
+        <v>363.298</v>
       </c>
       <c r="E29">
-        <v>391.858</v>
+        <v>165.392</v>
       </c>
       <c r="F29">
-        <v>284.39800000000002</v>
+        <v>90.012</v>
       </c>
       <c r="G29">
-        <v>513.09500000000003</v>
+        <v>219.09800000000001</v>
       </c>
       <c r="H29">
-        <v>2956.17</v>
+        <v>981.93899999999996</v>
       </c>
       <c r="I29">
-        <v>59.701999999999998</v>
+        <v>43.901000000000003</v>
       </c>
       <c r="J29">
-        <v>45</v>
+        <v>254.322</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>355.649</v>
+        <v>146.41999999999999</v>
       </c>
       <c r="O29">
-        <v>869.154</v>
+        <v>508.19900000000001</v>
       </c>
       <c r="P29">
-        <v>95</v>
+        <v>266.43099999999998</v>
       </c>
       <c r="Q29">
-        <v>44.258000000000003</v>
+        <v>-0.312</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2087.0160000000001</v>
+        <v>473.74</v>
       </c>
       <c r="U29">
-        <v>78.090999999999994</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="V29">
-        <v>149.499</v>
+        <v>36.212000000000003</v>
       </c>
       <c r="W29">
-        <v>-8.2279999999999998</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-9.1059999999999999</v>
+        <v>-0.93899999999999995</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="AA29">
-        <v>102.31399999999999</v>
+        <v>20.010000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>197.25</v>
+        <v>15.712</v>
       </c>
       <c r="D30">
-        <v>891.11699999999996</v>
+        <v>358.685</v>
       </c>
       <c r="E30">
-        <v>394.16899999999998</v>
+        <v>151.62700000000001</v>
       </c>
       <c r="F30">
-        <v>270.36599999999999</v>
+        <v>84.700999999999993</v>
       </c>
       <c r="G30">
-        <v>584.65300000000002</v>
+        <v>216.27699999999999</v>
       </c>
       <c r="H30">
-        <v>3068.424</v>
+        <v>981.048</v>
       </c>
       <c r="I30">
-        <v>73.728999999999999</v>
+        <v>33.341000000000001</v>
       </c>
       <c r="J30">
-        <v>45</v>
+        <v>251.56100000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>351.04899999999998</v>
+        <v>127.723</v>
       </c>
       <c r="O30">
-        <v>791.57</v>
+        <v>491.596</v>
       </c>
       <c r="P30">
-        <v>95</v>
+        <v>263.75400000000002</v>
       </c>
       <c r="Q30">
-        <v>49.371000000000002</v>
+        <v>5.351</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>19183</v>
+        <v>11573</v>
       </c>
       <c r="T30">
-        <v>2276.8539999999998</v>
+        <v>489.452</v>
       </c>
       <c r="U30">
-        <v>127.462</v>
+        <v>6.3280000000000003</v>
       </c>
       <c r="V30">
-        <v>148.28100000000001</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="W30">
-        <v>-8.2279999999999998</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-8.2279999999999998</v>
+        <v>-4.5750000000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-8.8149999999999995</v>
       </c>
       <c r="AA30">
-        <v>197.25</v>
+        <v>15.712</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>109.333</v>
+        <v>10.388999999999999</v>
       </c>
       <c r="D31">
-        <v>925.02</v>
+        <v>368.17399999999998</v>
       </c>
       <c r="E31">
-        <v>412.93200000000002</v>
+        <v>163.303</v>
       </c>
       <c r="F31">
-        <v>278.98700000000002</v>
+        <v>78.933999999999997</v>
       </c>
       <c r="G31">
-        <v>615.45000000000005</v>
+        <v>238.50399999999999</v>
       </c>
       <c r="H31">
-        <v>3144.0039999999999</v>
+        <v>1007.732</v>
       </c>
       <c r="I31">
-        <v>78.498000000000005</v>
+        <v>39.359000000000002</v>
       </c>
       <c r="J31">
-        <v>45</v>
+        <v>240.65899999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-50</v>
+        <v>-6.6669999999999998</v>
       </c>
       <c r="N31">
-        <v>345.28500000000003</v>
+        <v>146.15899999999999</v>
       </c>
       <c r="O31">
-        <v>785.25300000000004</v>
+        <v>507.89100000000002</v>
       </c>
       <c r="P31">
-        <v>45</v>
+        <v>257.08699999999999</v>
       </c>
       <c r="Q31">
-        <v>32.475000000000001</v>
+        <v>28.512</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2358.7510000000002</v>
+        <v>499.84100000000001</v>
       </c>
       <c r="U31">
-        <v>159.93700000000001</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="V31">
-        <v>211.24700000000001</v>
+        <v>38.630000000000003</v>
       </c>
       <c r="W31">
-        <v>-10.695</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-78.561000000000007</v>
+        <v>-6.6669999999999998</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>20.785</v>
       </c>
       <c r="AA31">
-        <v>109.333</v>
+        <v>10.388999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>163.434</v>
+        <v>23.881</v>
       </c>
       <c r="D32">
-        <v>1033.498</v>
+        <v>417.84</v>
       </c>
       <c r="E32">
-        <v>456.90600000000001</v>
+        <v>185.23599999999999</v>
       </c>
       <c r="F32">
-        <v>351.2</v>
+        <v>103</v>
       </c>
       <c r="G32">
-        <v>647.58500000000004</v>
+        <v>260.96600000000001</v>
       </c>
       <c r="H32">
-        <v>3321.0819999999999</v>
+        <v>1054.106</v>
       </c>
       <c r="I32">
-        <v>81.668000000000006</v>
+        <v>47.805</v>
       </c>
       <c r="J32">
-        <v>45</v>
+        <v>240.476</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>366.36200000000002</v>
+        <v>162.67400000000001</v>
       </c>
       <c r="O32">
-        <v>839.03099999999995</v>
+        <v>530.38400000000001</v>
       </c>
       <c r="P32">
-        <v>45</v>
+        <v>256.928</v>
       </c>
       <c r="Q32">
-        <v>-19.366</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2482.0509999999999</v>
+        <v>523.72199999999998</v>
       </c>
       <c r="U32">
-        <v>140.571</v>
+        <v>35.231000000000002</v>
       </c>
       <c r="V32">
-        <v>213.44399999999999</v>
+        <v>42.795000000000002</v>
       </c>
       <c r="W32">
-        <v>-10.678000000000001</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-41.28</v>
+        <v>-0.159</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="AA32">
-        <v>163.434</v>
+        <v>23.881</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>173.44200000000001</v>
+        <v>23.359000000000002</v>
       </c>
       <c r="D33">
-        <v>1058.2329999999999</v>
+        <v>415.87400000000002</v>
       </c>
       <c r="E33">
-        <v>466.45499999999998</v>
+        <v>179.93700000000001</v>
       </c>
       <c r="F33">
-        <v>360.57499999999999</v>
+        <v>104.736</v>
       </c>
       <c r="G33">
-        <v>696.31500000000005</v>
+        <v>262.51</v>
       </c>
       <c r="H33">
-        <v>3489.3119999999999</v>
+        <v>1076.4580000000001</v>
       </c>
       <c r="I33">
-        <v>88.15</v>
+        <v>40.308</v>
       </c>
       <c r="J33">
-        <v>45</v>
+        <v>240.21199999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>362.45699999999999</v>
+        <v>158.59800000000001</v>
       </c>
       <c r="O33">
-        <v>872.38</v>
+        <v>529.37699999999995</v>
       </c>
       <c r="P33">
-        <v>45</v>
+        <v>252.46700000000001</v>
       </c>
       <c r="Q33">
-        <v>36.896999999999998</v>
+        <v>-4.2880000000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>20439</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>2616.9319999999998</v>
+        <v>547.08100000000002</v>
       </c>
       <c r="U33">
-        <v>177.46799999999999</v>
+        <v>30.943000000000001</v>
       </c>
       <c r="V33">
-        <v>250.727</v>
+        <v>50.024000000000001</v>
       </c>
       <c r="W33">
-        <v>-10.638</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-39.832999999999998</v>
+        <v>-5.6269999999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-6.8959999999999999</v>
       </c>
       <c r="AA33">
-        <v>173.44200000000001</v>
+        <v>23.359000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>159.459</v>
+        <v>11.048</v>
       </c>
       <c r="D34">
-        <v>1026.944</v>
+        <v>335.83600000000001</v>
       </c>
       <c r="E34">
-        <v>427.56900000000002</v>
+        <v>139.21100000000001</v>
       </c>
       <c r="F34">
-        <v>352.76799999999997</v>
+        <v>83.668999999999997</v>
       </c>
       <c r="G34">
-        <v>706.22900000000004</v>
+        <v>209.23</v>
       </c>
       <c r="H34">
-        <v>3545.2829999999999</v>
+        <v>1074.905</v>
       </c>
       <c r="I34">
-        <v>78.518000000000001</v>
+        <v>40.999000000000002</v>
       </c>
       <c r="J34">
-        <v>45</v>
+        <v>240.017</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>356.73200000000003</v>
+        <v>142.19</v>
       </c>
       <c r="O34">
-        <v>864.8</v>
+        <v>516.77599999999995</v>
       </c>
       <c r="P34">
-        <v>45</v>
+        <v>251.989</v>
       </c>
       <c r="Q34">
-        <v>12.814</v>
+        <v>-6.8390000000000004</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>21279</v>
+        <v>10864</v>
       </c>
       <c r="T34">
-        <v>2680.4830000000002</v>
+        <v>558.12900000000002</v>
       </c>
       <c r="U34">
-        <v>190.28200000000001</v>
+        <v>24.103999999999999</v>
       </c>
       <c r="V34">
-        <v>224.69800000000001</v>
+        <v>65.057000000000002</v>
       </c>
       <c r="W34">
-        <v>-10.555</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-97.230999999999995</v>
+        <v>-0.47799999999999998</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA34">
-        <v>159.459</v>
+        <v>11.048</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>133.32300000000001</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="D35">
-        <v>990.78200000000004</v>
+        <v>295.14299999999997</v>
       </c>
       <c r="E35">
-        <v>447.24200000000002</v>
+        <v>138.40799999999999</v>
       </c>
       <c r="F35">
-        <v>318.55500000000001</v>
+        <v>66.471999999999994</v>
       </c>
       <c r="G35">
-        <v>783.87800000000004</v>
+        <v>188.22499999999999</v>
       </c>
       <c r="H35">
-        <v>3704.0419999999999</v>
+        <v>1109.0530000000001</v>
       </c>
       <c r="I35">
-        <v>79.397000000000006</v>
+        <v>49.219000000000001</v>
       </c>
       <c r="J35">
-        <v>45</v>
+        <v>259.68900000000002</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-11.196999999999999</v>
       </c>
       <c r="N35">
-        <v>358.15499999999997</v>
+        <v>150.727</v>
       </c>
       <c r="O35">
-        <v>933.67100000000005</v>
+        <v>546.95100000000002</v>
       </c>
       <c r="P35">
-        <v>114</v>
+        <v>271.375</v>
       </c>
       <c r="Q35">
-        <v>90.344999999999999</v>
+        <v>-20.489000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>21038</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>2770.3710000000001</v>
+        <v>562.10199999999998</v>
       </c>
       <c r="U35">
-        <v>280.62700000000001</v>
+        <v>3.6150000000000002</v>
       </c>
       <c r="V35">
-        <v>206.17500000000001</v>
+        <v>32.631</v>
       </c>
       <c r="W35">
-        <v>-13.79</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-45.366</v>
+        <v>19.385999999999999</v>
       </c>
       <c r="Y35">
-        <v>58.6</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>4.8609999999999998</v>
       </c>
       <c r="AA35">
-        <v>133.32300000000001</v>
+        <v>3.9729999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>174.072</v>
+        <v>10.722</v>
       </c>
       <c r="D36">
-        <v>1060.6659999999999</v>
+        <v>316.17500000000001</v>
       </c>
       <c r="E36">
-        <v>449.98399999999998</v>
+        <v>144.15199999999999</v>
       </c>
       <c r="F36">
-        <v>375.07100000000003</v>
+        <v>75.417000000000002</v>
       </c>
       <c r="G36">
-        <v>741.42</v>
+        <v>193.804</v>
       </c>
       <c r="H36">
-        <v>3758.703</v>
+        <v>1144.5920000000001</v>
       </c>
       <c r="I36">
-        <v>85.125</v>
+        <v>36.258000000000003</v>
       </c>
       <c r="J36">
-        <v>45</v>
+        <v>264.94799999999998</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>386.10500000000002</v>
+        <v>163.12100000000001</v>
       </c>
       <c r="O36">
-        <v>960.21799999999996</v>
+        <v>571.76800000000003</v>
       </c>
       <c r="P36">
-        <v>113.444</v>
+        <v>301.44499999999999</v>
       </c>
       <c r="Q36">
-        <v>-51.667000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2798.4850000000001</v>
+        <v>572.82399999999996</v>
       </c>
       <c r="U36">
-        <v>228.96</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="V36">
-        <v>255.708</v>
+        <v>22.311</v>
       </c>
       <c r="W36">
-        <v>-13.645</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-148.249</v>
+        <v>30.07</v>
       </c>
       <c r="Y36">
-        <v>57.944000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>174.072</v>
+        <v>10.722</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>164.09899999999999</v>
+        <v>10.494999999999999</v>
       </c>
       <c r="D37">
-        <v>1048.4570000000001</v>
+        <v>322.76299999999998</v>
       </c>
       <c r="E37">
-        <v>425.85</v>
+        <v>150.17500000000001</v>
       </c>
       <c r="F37">
-        <v>366.50200000000001</v>
+        <v>74.349000000000004</v>
       </c>
       <c r="G37">
-        <v>806.97799999999995</v>
+        <v>195.84299999999999</v>
       </c>
       <c r="H37">
-        <v>3892.4180000000001</v>
+        <v>1174.7619999999999</v>
       </c>
       <c r="I37">
-        <v>81.269000000000005</v>
+        <v>31.404</v>
       </c>
       <c r="J37">
-        <v>45</v>
+        <v>277.41199999999998</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>396.86200000000002</v>
+        <v>163.88300000000001</v>
       </c>
       <c r="O37">
-        <v>982.89</v>
+        <v>591.44299999999998</v>
       </c>
       <c r="P37">
-        <v>113.553</v>
+        <v>313.91699999999997</v>
       </c>
       <c r="Q37">
-        <v>93.325999999999993</v>
+        <v>-0.30399999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2909.5279999999998</v>
+        <v>583.31899999999996</v>
       </c>
       <c r="U37">
-        <v>322.286</v>
+        <v>3.641</v>
       </c>
       <c r="V37">
-        <v>285.63200000000001</v>
+        <v>37.268999999999998</v>
       </c>
       <c r="W37">
-        <v>-13.57</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-54.183999999999997</v>
+        <v>12.472</v>
       </c>
       <c r="Y37">
-        <v>57.853000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>164.09899999999999</v>
+        <v>10.494999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>144.024</v>
+        <v>9.6809999999999992</v>
       </c>
       <c r="D38">
-        <v>1009.206</v>
+        <v>310.92399999999998</v>
       </c>
       <c r="E38">
-        <v>397.57900000000001</v>
+        <v>136.822</v>
       </c>
       <c r="F38">
-        <v>334.16800000000001</v>
+        <v>70.007000000000005</v>
       </c>
       <c r="G38">
-        <v>866.83399999999995</v>
+        <v>174.17500000000001</v>
       </c>
       <c r="H38">
-        <v>3995.5680000000002</v>
+        <v>1159.278</v>
       </c>
       <c r="I38">
-        <v>70.254000000000005</v>
+        <v>28.14</v>
       </c>
       <c r="J38">
-        <v>45</v>
+        <v>268.85599999999999</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>366.08499999999998</v>
+        <v>148.125</v>
       </c>
       <c r="O38">
-        <v>914.851</v>
+        <v>566.27800000000002</v>
       </c>
       <c r="P38">
-        <v>111.5</v>
+        <v>305.53199999999998</v>
       </c>
       <c r="Q38">
-        <v>81.284999999999997</v>
+        <v>0.53</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>20105</v>
+        <v>9608</v>
       </c>
       <c r="T38">
-        <v>3080.7170000000001</v>
+        <v>593</v>
       </c>
       <c r="U38">
-        <v>403.57100000000003</v>
+        <v>4.1710000000000003</v>
       </c>
       <c r="V38">
-        <v>236.37299999999999</v>
+        <v>38.505000000000003</v>
       </c>
       <c r="W38">
-        <v>-13.547000000000001</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-49.161000000000001</v>
+        <v>-8.8529999999999998</v>
       </c>
       <c r="Y38">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>144.024</v>
+        <v>9.6809999999999992</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>133.17699999999999</v>
+        <v>7.7009999999999996</v>
       </c>
       <c r="D39">
-        <v>987.36400000000003</v>
+        <v>317.79500000000002</v>
       </c>
       <c r="E39">
-        <v>419.12799999999999</v>
+        <v>148.041</v>
       </c>
       <c r="F39">
-        <v>326.197</v>
+        <v>67.44</v>
       </c>
       <c r="G39">
-        <v>831.00599999999997</v>
+        <v>194.00700000000001</v>
       </c>
       <c r="H39">
-        <v>3934.9859999999999</v>
+        <v>1192.9690000000001</v>
       </c>
       <c r="I39">
-        <v>55.097000000000001</v>
+        <v>31.503</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>272.85700000000003</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,40 +3960,40 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-11.148</v>
       </c>
       <c r="N39">
-        <v>428.29500000000002</v>
+        <v>171.596</v>
       </c>
       <c r="O39">
-        <v>918.93700000000001</v>
+        <v>592.26800000000003</v>
       </c>
       <c r="P39">
-        <v>45</v>
+        <v>309.33699999999999</v>
       </c>
       <c r="Q39">
-        <v>-46.598999999999997</v>
+        <v>5.298</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>19944</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>3016.049</v>
+        <v>600.70100000000002</v>
       </c>
       <c r="U39">
-        <v>356.97199999999998</v>
+        <v>9.4689999999999994</v>
       </c>
       <c r="V39">
-        <v>204.018</v>
+        <v>35.042000000000002</v>
       </c>
       <c r="W39">
-        <v>-18.309999999999999</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-199.94900000000001</v>
+        <v>3.8050000000000002</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3882,39 +4002,39 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>133.17699999999999</v>
+        <v>7.7009999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>147.80500000000001</v>
+        <v>21.513000000000002</v>
       </c>
       <c r="D40">
-        <v>896.21</v>
+        <v>368.25</v>
       </c>
       <c r="E40">
-        <v>387.26</v>
+        <v>162.703</v>
       </c>
       <c r="F40">
-        <v>333.64699999999999</v>
+        <v>91.978999999999999</v>
       </c>
       <c r="G40">
-        <v>968.57</v>
+        <v>206.83199999999999</v>
       </c>
       <c r="H40">
-        <v>4080.0279999999998</v>
+        <v>1202.8810000000001</v>
       </c>
       <c r="I40">
-        <v>51.256999999999998</v>
+        <v>30.638999999999999</v>
       </c>
       <c r="J40">
-        <v>99.923000000000002</v>
+        <v>252.142</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,37 +4046,37 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>494.17399999999998</v>
+        <v>179.66200000000001</v>
       </c>
       <c r="O40">
-        <v>1097.56</v>
+        <v>580.66700000000003</v>
       </c>
       <c r="P40">
-        <v>144.923</v>
+        <v>288.423</v>
       </c>
       <c r="Q40">
-        <v>161.65199999999999</v>
+        <v>-4.6859999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>18930</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>2982.4679999999998</v>
+        <v>622.21400000000006</v>
       </c>
       <c r="U40">
-        <v>518.62400000000002</v>
+        <v>4.7830000000000004</v>
       </c>
       <c r="V40">
-        <v>312.19799999999998</v>
+        <v>34.137999999999998</v>
       </c>
       <c r="W40">
-        <v>-17.582000000000001</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-83.656000000000006</v>
+        <v>-20.914000000000001</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3965,39 +4085,39 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>147.80500000000001</v>
+        <v>21.513000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>201.86799999999999</v>
+        <v>24.381</v>
       </c>
       <c r="D41">
-        <v>1058.1659999999999</v>
+        <v>395.98099999999999</v>
       </c>
       <c r="E41">
-        <v>453.346</v>
+        <v>176.595</v>
       </c>
       <c r="F41">
-        <v>410.21199999999999</v>
+        <v>97.29</v>
       </c>
       <c r="G41">
-        <v>1138.4960000000001</v>
+        <v>221.06299999999999</v>
       </c>
       <c r="H41">
-        <v>4273.6880000000001</v>
+        <v>1219.0809999999999</v>
       </c>
       <c r="I41">
-        <v>59.228999999999999</v>
+        <v>31.166</v>
       </c>
       <c r="J41">
-        <v>99.927000000000007</v>
+        <v>167.97900000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>449.28800000000001</v>
+        <v>248.768</v>
       </c>
       <c r="O41">
-        <v>1102.855</v>
+        <v>572.48800000000006</v>
       </c>
       <c r="P41">
-        <v>246.727</v>
+        <v>265.33800000000002</v>
       </c>
       <c r="Q41">
-        <v>-98.227999999999994</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>20644</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>3170.8330000000001</v>
+        <v>646.59299999999996</v>
       </c>
       <c r="U41">
-        <v>420.39600000000002</v>
+        <v>5.0570000000000004</v>
       </c>
       <c r="V41">
-        <v>170.24199999999999</v>
+        <v>40.984999999999999</v>
       </c>
       <c r="W41">
-        <v>-17.579000000000001</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-17.579000000000001</v>
+        <v>-23.809000000000001</v>
       </c>
       <c r="Y41">
-        <v>89.5</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-205.30099999999999</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>201.86799999999999</v>
+        <v>24.381</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>22.056000000000001</v>
+      </c>
+      <c r="D42">
+        <v>398.97199999999998</v>
+      </c>
+      <c r="E42">
+        <v>172.989</v>
+      </c>
+      <c r="F42">
+        <v>90.227999999999994</v>
+      </c>
+      <c r="G42">
+        <v>222.58199999999999</v>
+      </c>
+      <c r="H42">
+        <v>1239.8810000000001</v>
+      </c>
+      <c r="I42">
+        <v>29.221</v>
+      </c>
+      <c r="J42">
+        <v>234.08699999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>170.04599999999999</v>
+      </c>
+      <c r="O42">
+        <v>571.23199999999997</v>
+      </c>
+      <c r="P42">
+        <v>271.21699999999998</v>
+      </c>
+      <c r="Q42">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>11179</v>
+      </c>
+      <c r="T42">
+        <v>668.649</v>
+      </c>
+      <c r="U42">
+        <v>5.45</v>
+      </c>
+      <c r="V42">
+        <v>30.911000000000001</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>5.4180000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>22.056000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>21.573</v>
+      </c>
+      <c r="D43">
+        <v>422.67899999999997</v>
+      </c>
+      <c r="E43">
+        <v>196.69399999999999</v>
+      </c>
+      <c r="F43">
+        <v>96.320999999999998</v>
+      </c>
+      <c r="G43">
+        <v>330.33699999999999</v>
+      </c>
+      <c r="H43">
+        <v>1383.902</v>
+      </c>
+      <c r="I43">
+        <v>48.929000000000002</v>
+      </c>
+      <c r="J43">
+        <v>252.143</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-77.301000000000002</v>
+      </c>
+      <c r="N43">
+        <v>227.03800000000001</v>
+      </c>
+      <c r="O43">
+        <v>645.28</v>
+      </c>
+      <c r="P43">
+        <v>288.916</v>
+      </c>
+      <c r="Q43">
+        <v>82.692999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>738.62199999999996</v>
+      </c>
+      <c r="U43">
+        <v>88.143000000000001</v>
+      </c>
+      <c r="V43">
+        <v>73.807000000000002</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>66.099000000000004</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>21.573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>39.383000000000003</v>
+      </c>
+      <c r="D44">
+        <v>480.255</v>
+      </c>
+      <c r="E44">
+        <v>212.535</v>
+      </c>
+      <c r="F44">
+        <v>125.471</v>
+      </c>
+      <c r="G44">
+        <v>296.13600000000002</v>
+      </c>
+      <c r="H44">
+        <v>1409.5039999999999</v>
+      </c>
+      <c r="I44">
+        <v>41.156999999999996</v>
+      </c>
+      <c r="J44">
+        <v>227.143</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>212.38300000000001</v>
+      </c>
+      <c r="O44">
+        <v>631.49900000000002</v>
+      </c>
+      <c r="P44">
+        <v>265.24200000000002</v>
+      </c>
+      <c r="Q44">
+        <v>-59.478999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>778.005</v>
+      </c>
+      <c r="U44">
+        <v>28.664000000000001</v>
+      </c>
+      <c r="V44">
+        <v>45.372999999999998</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-23.673999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>39.383000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>38.631</v>
+      </c>
+      <c r="D45">
+        <v>494.47500000000002</v>
+      </c>
+      <c r="E45">
+        <v>222.52500000000001</v>
+      </c>
+      <c r="F45">
+        <v>131.339</v>
+      </c>
+      <c r="G45">
+        <v>318.589</v>
+      </c>
+      <c r="H45">
+        <v>1473.1980000000001</v>
+      </c>
+      <c r="I45">
+        <v>50.707000000000001</v>
+      </c>
+      <c r="J45">
+        <v>227.143</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>220.11699999999999</v>
+      </c>
+      <c r="O45">
+        <v>656.56200000000001</v>
+      </c>
+      <c r="P45">
+        <v>264.47399999999999</v>
+      </c>
+      <c r="Q45">
+        <v>13.598000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>11980</v>
+      </c>
+      <c r="T45">
+        <v>816.63599999999997</v>
+      </c>
+      <c r="U45">
+        <v>42.262</v>
+      </c>
+      <c r="V45">
+        <v>81.168999999999997</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-1.272</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>38.631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>39.883000000000003</v>
+      </c>
+      <c r="D46">
+        <v>485.13200000000001</v>
+      </c>
+      <c r="E46">
+        <v>213.48099999999999</v>
+      </c>
+      <c r="F46">
+        <v>123.095</v>
+      </c>
+      <c r="G46">
+        <v>331.85199999999998</v>
+      </c>
+      <c r="H46">
+        <v>1513.0740000000001</v>
+      </c>
+      <c r="I46">
+        <v>42.095999999999997</v>
+      </c>
+      <c r="J46">
+        <v>229.83099999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>204.81</v>
+      </c>
+      <c r="O46">
+        <v>656.55499999999995</v>
+      </c>
+      <c r="P46">
+        <v>269.185</v>
+      </c>
+      <c r="Q46">
+        <v>33.588000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>12022</v>
+      </c>
+      <c r="T46">
+        <v>856.51900000000001</v>
+      </c>
+      <c r="U46">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="V46">
+        <v>77.584999999999994</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-3.355</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>39.883000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>31.094999999999999</v>
+      </c>
+      <c r="D47">
+        <v>502.81900000000002</v>
+      </c>
+      <c r="E47">
+        <v>228.398</v>
+      </c>
+      <c r="F47">
+        <v>120.58199999999999</v>
+      </c>
+      <c r="G47">
+        <v>327.9</v>
+      </c>
+      <c r="H47">
+        <v>1574.192</v>
+      </c>
+      <c r="I47">
+        <v>54.677</v>
+      </c>
+      <c r="J47">
+        <v>219.11699999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-11.199</v>
+      </c>
+      <c r="N47">
+        <v>251.268</v>
+      </c>
+      <c r="O47">
+        <v>686.57799999999997</v>
+      </c>
+      <c r="P47">
+        <v>258.20299999999997</v>
+      </c>
+      <c r="Q47">
+        <v>-21.631</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>887.61400000000003</v>
+      </c>
+      <c r="U47">
+        <v>54.219000000000001</v>
+      </c>
+      <c r="V47">
+        <v>78.326999999999998</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-11.193</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>31.094999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>47.832000000000001</v>
+      </c>
+      <c r="D48">
+        <v>547.452</v>
+      </c>
+      <c r="E48">
+        <v>241.43299999999999</v>
+      </c>
+      <c r="F48">
+        <v>152.511</v>
+      </c>
+      <c r="G48">
+        <v>301.15800000000002</v>
+      </c>
+      <c r="H48">
+        <v>1639.644</v>
+      </c>
+      <c r="I48">
+        <v>62.54</v>
+      </c>
+      <c r="J48">
+        <v>228.14699999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>244.45400000000001</v>
+      </c>
+      <c r="O48">
+        <v>704.19799999999998</v>
+      </c>
+      <c r="P48">
+        <v>267.94299999999998</v>
+      </c>
+      <c r="Q48">
+        <v>-43.204000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>935.44600000000003</v>
+      </c>
+      <c r="U48">
+        <v>11.015000000000001</v>
+      </c>
+      <c r="V48">
+        <v>66.094999999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>8.8569999999999993</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>47.832000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>51.043999999999997</v>
+      </c>
+      <c r="D49">
+        <v>550.51099999999997</v>
+      </c>
+      <c r="E49">
+        <v>248.25399999999999</v>
+      </c>
+      <c r="F49">
+        <v>152.22399999999999</v>
+      </c>
+      <c r="G49">
+        <v>305.73899999999998</v>
+      </c>
+      <c r="H49">
+        <v>1714.6220000000001</v>
+      </c>
+      <c r="I49">
+        <v>56.93</v>
+      </c>
+      <c r="J49">
+        <v>243.49700000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>237.62799999999999</v>
+      </c>
+      <c r="O49">
+        <v>728.13400000000001</v>
+      </c>
+      <c r="P49">
+        <v>282.81099999999998</v>
+      </c>
+      <c r="Q49">
+        <v>-4.1130000000000004</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>986.48800000000006</v>
+      </c>
+      <c r="U49">
+        <v>6.9020000000000001</v>
+      </c>
+      <c r="V49">
+        <v>78.316000000000003</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>14.866</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>51.043999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>39.481000000000002</v>
+      </c>
+      <c r="D50">
+        <v>533.79700000000003</v>
+      </c>
+      <c r="E50">
+        <v>219.03899999999999</v>
+      </c>
+      <c r="F50">
+        <v>136.161</v>
+      </c>
+      <c r="G50">
+        <v>275.02800000000002</v>
+      </c>
+      <c r="H50">
+        <v>1712.5139999999999</v>
+      </c>
+      <c r="I50">
+        <v>44.890999999999998</v>
+      </c>
+      <c r="J50">
+        <v>201.429</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>225.13900000000001</v>
+      </c>
+      <c r="O50">
+        <v>686.54499999999996</v>
+      </c>
+      <c r="P50">
+        <v>240.40700000000001</v>
+      </c>
+      <c r="Q50">
+        <v>5.9550000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>13016</v>
+      </c>
+      <c r="T50">
+        <v>1025.9690000000001</v>
+      </c>
+      <c r="U50">
+        <v>12.856999999999999</v>
+      </c>
+      <c r="V50">
+        <v>105.318</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-42.404000000000003</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>39.481000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>40.552999999999997</v>
+      </c>
+      <c r="D51">
+        <v>538.41600000000005</v>
+      </c>
+      <c r="E51">
+        <v>248.22499999999999</v>
+      </c>
+      <c r="F51">
+        <v>139.67500000000001</v>
+      </c>
+      <c r="G51">
+        <v>324.964</v>
+      </c>
+      <c r="H51">
+        <v>1761.192</v>
+      </c>
+      <c r="I51">
+        <v>41.470999999999997</v>
+      </c>
+      <c r="J51">
+        <v>180.714</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-21.074000000000002</v>
+      </c>
+      <c r="N51">
+        <v>254.13</v>
+      </c>
+      <c r="O51">
+        <v>694.67</v>
+      </c>
+      <c r="P51">
+        <v>219.333</v>
+      </c>
+      <c r="Q51">
+        <v>16.326000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1066.5219999999999</v>
+      </c>
+      <c r="U51">
+        <v>29.183</v>
+      </c>
+      <c r="V51">
+        <v>63.533999999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-21.074000000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>40.552999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>58.255000000000003</v>
+      </c>
+      <c r="D52">
+        <v>590.30399999999997</v>
+      </c>
+      <c r="E52">
+        <v>267.69</v>
+      </c>
+      <c r="F52">
+        <v>171.33</v>
+      </c>
+      <c r="G52">
+        <v>324.08199999999999</v>
+      </c>
+      <c r="H52">
+        <v>1854.73</v>
+      </c>
+      <c r="I52">
+        <v>66.718000000000004</v>
+      </c>
+      <c r="J52">
+        <v>190.39400000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>273.12799999999999</v>
+      </c>
+      <c r="O52">
+        <v>729.95299999999997</v>
+      </c>
+      <c r="P52">
+        <v>228.797</v>
+      </c>
+      <c r="Q52">
+        <v>-21.812999999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1124.777</v>
+      </c>
+      <c r="U52">
+        <v>7.37</v>
+      </c>
+      <c r="V52">
+        <v>90.33</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>9.4640000000000004</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>58.255000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>60.149000000000001</v>
+      </c>
+      <c r="D53">
+        <v>616.45799999999997</v>
+      </c>
+      <c r="E53">
+        <v>268.22300000000001</v>
+      </c>
+      <c r="F53">
+        <v>178.738</v>
+      </c>
+      <c r="G53">
+        <v>333.27600000000001</v>
+      </c>
+      <c r="H53">
+        <v>1904.6790000000001</v>
+      </c>
+      <c r="I53">
+        <v>54.512</v>
+      </c>
+      <c r="J53">
+        <v>167.71</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>248.81100000000001</v>
+      </c>
+      <c r="O53">
+        <v>719.75300000000004</v>
+      </c>
+      <c r="P53">
+        <v>206.113</v>
+      </c>
+      <c r="Q53">
+        <v>4.734</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1184.9259999999999</v>
+      </c>
+      <c r="U53">
+        <v>12.103999999999999</v>
+      </c>
+      <c r="V53">
+        <v>99.522000000000006</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-22.684000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>60.149000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>47.155999999999999</v>
+      </c>
+      <c r="D54">
+        <v>592.47</v>
+      </c>
+      <c r="E54">
+        <v>248.06899999999999</v>
+      </c>
+      <c r="F54">
+        <v>150.434</v>
+      </c>
+      <c r="G54">
+        <v>332.97899999999998</v>
+      </c>
+      <c r="H54">
+        <v>1932.0889999999999</v>
+      </c>
+      <c r="I54">
+        <v>36.787999999999997</v>
+      </c>
+      <c r="J54">
+        <v>155.714</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>232.12200000000001</v>
+      </c>
+      <c r="O54">
+        <v>700.00699999999995</v>
+      </c>
+      <c r="P54">
+        <v>191.429</v>
+      </c>
+      <c r="Q54">
+        <v>18.07</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>14073</v>
+      </c>
+      <c r="T54">
+        <v>1232.0820000000001</v>
+      </c>
+      <c r="U54">
+        <v>30.173999999999999</v>
+      </c>
+      <c r="V54">
+        <v>97.28</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-14.683999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>47.155999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>45.887</v>
+      </c>
+      <c r="D55">
+        <v>620.27599999999995</v>
+      </c>
+      <c r="E55">
+        <v>285.24900000000002</v>
+      </c>
+      <c r="F55">
+        <v>164.42500000000001</v>
+      </c>
+      <c r="G55">
+        <v>388.97399999999999</v>
+      </c>
+      <c r="H55">
+        <v>2031.768</v>
+      </c>
+      <c r="I55">
+        <v>71.763999999999996</v>
+      </c>
+      <c r="J55">
+        <v>145</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-10.715</v>
+      </c>
+      <c r="N55">
+        <v>293.505</v>
+      </c>
+      <c r="O55">
+        <v>753.79899999999998</v>
+      </c>
+      <c r="P55">
+        <v>180.714</v>
+      </c>
+      <c r="Q55">
+        <v>11.07</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1277.9690000000001</v>
+      </c>
+      <c r="U55">
+        <v>41.244</v>
+      </c>
+      <c r="V55">
+        <v>99.567999999999998</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-10.715</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>45.887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>73.849000000000004</v>
+      </c>
+      <c r="D56">
+        <v>702.98699999999997</v>
+      </c>
+      <c r="E56">
+        <v>302.262</v>
+      </c>
+      <c r="F56">
+        <v>210.989</v>
+      </c>
+      <c r="G56">
+        <v>382.37299999999999</v>
+      </c>
+      <c r="H56">
+        <v>2124.0630000000001</v>
+      </c>
+      <c r="I56">
+        <v>63.783000000000001</v>
+      </c>
+      <c r="J56">
+        <v>164</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>297.56299999999999</v>
+      </c>
+      <c r="O56">
+        <v>772.245</v>
+      </c>
+      <c r="P56">
+        <v>199.714</v>
+      </c>
+      <c r="Q56">
+        <v>-21.454999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1351.818</v>
+      </c>
+      <c r="U56">
+        <v>19.789000000000001</v>
+      </c>
+      <c r="V56">
+        <v>82.105000000000004</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>19</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>73.849000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>77.909000000000006</v>
+      </c>
+      <c r="D57">
+        <v>743.58600000000001</v>
+      </c>
+      <c r="E57">
+        <v>322.39499999999998</v>
+      </c>
+      <c r="F57">
+        <v>224.70599999999999</v>
+      </c>
+      <c r="G57">
+        <v>394.601</v>
+      </c>
+      <c r="H57">
+        <v>2188.5390000000002</v>
+      </c>
+      <c r="I57">
+        <v>47.284999999999997</v>
+      </c>
+      <c r="J57">
+        <v>148.203</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>286.601</v>
+      </c>
+      <c r="O57">
+        <v>758.81200000000001</v>
+      </c>
+      <c r="P57">
+        <v>183.917</v>
+      </c>
+      <c r="Q57">
+        <v>-11.62</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1429.7270000000001</v>
+      </c>
+      <c r="U57">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="V57">
+        <v>96.341999999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-15.797000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>77.909000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>69.869</v>
+      </c>
+      <c r="D58">
+        <v>721.048</v>
+      </c>
+      <c r="E58">
+        <v>303.17</v>
+      </c>
+      <c r="F58">
+        <v>208.327</v>
+      </c>
+      <c r="G58">
+        <v>403.77199999999999</v>
+      </c>
+      <c r="H58">
+        <v>2206.866</v>
+      </c>
+      <c r="I58">
+        <v>45.314</v>
+      </c>
+      <c r="J58">
+        <v>120</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>255.63800000000001</v>
+      </c>
+      <c r="O58">
+        <v>712.80200000000002</v>
+      </c>
+      <c r="P58">
+        <v>155.714</v>
+      </c>
+      <c r="Q58">
+        <v>26.617999999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>16443</v>
+      </c>
+      <c r="T58">
+        <v>1494.0640000000001</v>
+      </c>
+      <c r="U58">
+        <v>34.786999999999999</v>
+      </c>
+      <c r="V58">
+        <v>113.65900000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-33.734999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>69.869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>62.524000000000001</v>
+      </c>
+      <c r="D59">
+        <v>696.245</v>
+      </c>
+      <c r="E59">
+        <v>317.70499999999998</v>
+      </c>
+      <c r="F59">
+        <v>200.553</v>
+      </c>
+      <c r="G59">
+        <v>499.89299999999997</v>
+      </c>
+      <c r="H59">
+        <v>2340.384</v>
+      </c>
+      <c r="I59">
+        <v>48.954999999999998</v>
+      </c>
+      <c r="J59">
+        <v>120</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-10.714</v>
+      </c>
+      <c r="N59">
+        <v>321.68200000000002</v>
+      </c>
+      <c r="O59">
+        <v>797.12300000000005</v>
+      </c>
+      <c r="P59">
+        <v>148.55199999999999</v>
+      </c>
+      <c r="Q59">
+        <v>78.251000000000005</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1543.261</v>
+      </c>
+      <c r="U59">
+        <v>113.038</v>
+      </c>
+      <c r="V59">
+        <v>172.59399999999999</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-24.041</v>
+      </c>
+      <c r="Y59">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>62.524000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>85.573999999999998</v>
+      </c>
+      <c r="D60">
+        <v>762.15099999999995</v>
+      </c>
+      <c r="E60">
+        <v>330.09100000000001</v>
+      </c>
+      <c r="F60">
+        <v>239.661</v>
+      </c>
+      <c r="G60">
+        <v>421.66500000000002</v>
+      </c>
+      <c r="H60">
+        <v>2378.067</v>
+      </c>
+      <c r="I60">
+        <v>61.042000000000002</v>
+      </c>
+      <c r="J60">
+        <v>118</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>298.86200000000002</v>
+      </c>
+      <c r="O60">
+        <v>778.30399999999997</v>
+      </c>
+      <c r="P60">
+        <v>146.34399999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-100.249</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1599.7629999999999</v>
+      </c>
+      <c r="U60">
+        <v>12.789</v>
+      </c>
+      <c r="V60">
+        <v>81.631</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-31.28</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>85.573999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>84.367999999999995</v>
+      </c>
+      <c r="D61">
+        <v>779.47400000000005</v>
+      </c>
+      <c r="E61">
+        <v>337.70600000000002</v>
+      </c>
+      <c r="F61">
+        <v>244.654</v>
+      </c>
+      <c r="G61">
+        <v>436.20600000000002</v>
+      </c>
+      <c r="H61">
+        <v>2474.4850000000001</v>
+      </c>
+      <c r="I61">
+        <v>58.258000000000003</v>
+      </c>
+      <c r="J61">
+        <v>95</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>364.17200000000003</v>
+      </c>
+      <c r="O61">
+        <v>827.072</v>
+      </c>
+      <c r="P61">
+        <v>185.37700000000001</v>
+      </c>
+      <c r="Q61">
+        <v>-1.377</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1647.413</v>
+      </c>
+      <c r="U61">
+        <v>11.412000000000001</v>
+      </c>
+      <c r="V61">
+        <v>118.04900000000001</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>84.367999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>72.224000000000004</v>
+      </c>
+      <c r="D62">
+        <v>734.572</v>
+      </c>
+      <c r="E62">
+        <v>310.50099999999998</v>
+      </c>
+      <c r="F62">
+        <v>211.06100000000001</v>
+      </c>
+      <c r="G62">
+        <v>381.73</v>
+      </c>
+      <c r="H62">
+        <v>2466.5039999999999</v>
+      </c>
+      <c r="I62">
+        <v>66.774000000000001</v>
+      </c>
+      <c r="J62">
+        <v>107.31699999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>285.40199999999999</v>
+      </c>
+      <c r="O62">
+        <v>781.86699999999996</v>
+      </c>
+      <c r="P62">
+        <v>133.80500000000001</v>
+      </c>
+      <c r="Q62">
+        <v>0.06</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>17931</v>
+      </c>
+      <c r="T62">
+        <v>1684.6369999999999</v>
+      </c>
+      <c r="U62">
+        <v>11.472</v>
+      </c>
+      <c r="V62">
+        <v>181.60599999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-86.572000000000003</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>72.224000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>60.284999999999997</v>
+      </c>
+      <c r="D63">
+        <v>707.73299999999995</v>
+      </c>
+      <c r="E63">
+        <v>311.64999999999998</v>
+      </c>
+      <c r="F63">
+        <v>203.71799999999999</v>
+      </c>
+      <c r="G63">
+        <v>355.62400000000002</v>
+      </c>
+      <c r="H63">
+        <v>2515.44</v>
+      </c>
+      <c r="I63">
+        <v>81.078999999999994</v>
+      </c>
+      <c r="J63">
+        <v>99.725999999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-8.4830000000000005</v>
+      </c>
+      <c r="N63">
+        <v>323.22300000000001</v>
+      </c>
+      <c r="O63">
+        <v>815.16399999999999</v>
+      </c>
+      <c r="P63">
+        <v>125.322</v>
+      </c>
+      <c r="Q63">
+        <v>-4.3390000000000004</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1700.2760000000001</v>
+      </c>
+      <c r="U63">
+        <v>7.133</v>
+      </c>
+      <c r="V63">
+        <v>168.393</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-53.128999999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>60.284999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>81.388000000000005</v>
+      </c>
+      <c r="D64">
+        <v>755.43499999999995</v>
+      </c>
+      <c r="E64">
+        <v>319.01900000000001</v>
+      </c>
+      <c r="F64">
+        <v>239.00899999999999</v>
+      </c>
+      <c r="G64">
+        <v>371.85899999999998</v>
+      </c>
+      <c r="H64">
+        <v>2659.8020000000001</v>
+      </c>
+      <c r="I64">
+        <v>79.23</v>
+      </c>
+      <c r="J64">
+        <v>218.33199999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>291.351</v>
+      </c>
+      <c r="O64">
+        <v>918.03300000000002</v>
+      </c>
+      <c r="P64">
+        <v>218.33199999999999</v>
+      </c>
+      <c r="Q64">
+        <v>3.54</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1741.769</v>
+      </c>
+      <c r="U64">
+        <v>10.673</v>
+      </c>
+      <c r="V64">
+        <v>123.83799999999999</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>52.634999999999998</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>81.388000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>85.581000000000003</v>
+      </c>
+      <c r="D65">
+        <v>782.61099999999999</v>
+      </c>
+      <c r="E65">
+        <v>333.041</v>
+      </c>
+      <c r="F65">
+        <v>246.35599999999999</v>
+      </c>
+      <c r="G65">
+        <v>389.15499999999997</v>
+      </c>
+      <c r="H65">
+        <v>2684.348</v>
+      </c>
+      <c r="I65">
+        <v>55.145000000000003</v>
+      </c>
+      <c r="J65">
+        <v>193.12899999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>268.97399999999999</v>
+      </c>
+      <c r="O65">
+        <v>890.87300000000005</v>
+      </c>
+      <c r="P65">
+        <v>193.12899999999999</v>
+      </c>
+      <c r="Q65">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1793.4749999999999</v>
+      </c>
+      <c r="U65">
+        <v>15.013999999999999</v>
+      </c>
+      <c r="V65">
+        <v>117.89700000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-59.542000000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>85.581000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>68.510999999999996</v>
+      </c>
+      <c r="D66">
+        <v>745.73800000000006</v>
+      </c>
+      <c r="E66">
+        <v>320.08699999999999</v>
+      </c>
+      <c r="F66">
+        <v>217.50700000000001</v>
+      </c>
+      <c r="G66">
+        <v>382.62200000000001</v>
+      </c>
+      <c r="H66">
+        <v>2696.2469999999998</v>
+      </c>
+      <c r="I66">
+        <v>89.215999999999994</v>
+      </c>
+      <c r="J66">
+        <v>104.97499999999999</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>288.63600000000002</v>
+      </c>
+      <c r="O66">
+        <v>845.08900000000006</v>
+      </c>
+      <c r="P66">
+        <v>104.97499999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-4.843</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>17543</v>
+      </c>
+      <c r="T66">
+        <v>1851.1579999999999</v>
+      </c>
+      <c r="U66">
+        <v>10.170999999999999</v>
+      </c>
+      <c r="V66">
+        <v>155.45500000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-99.447999999999993</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>68.510999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>65.792000000000002</v>
+      </c>
+      <c r="D67">
+        <v>754.096</v>
+      </c>
+      <c r="E67">
+        <v>332.15699999999998</v>
+      </c>
+      <c r="F67">
+        <v>219.06100000000001</v>
+      </c>
+      <c r="G67">
+        <v>425.07400000000001</v>
+      </c>
+      <c r="H67">
+        <v>2745.01</v>
+      </c>
+      <c r="I67">
+        <v>56.843000000000004</v>
+      </c>
+      <c r="J67">
+        <v>45</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-9.9749999999999996</v>
+      </c>
+      <c r="N67">
+        <v>334.78500000000003</v>
+      </c>
+      <c r="O67">
+        <v>835.64700000000005</v>
+      </c>
+      <c r="P67">
+        <v>95</v>
+      </c>
+      <c r="Q67">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1909.3630000000001</v>
+      </c>
+      <c r="U67">
+        <v>47.551000000000002</v>
+      </c>
+      <c r="V67">
+        <v>110.809</v>
+      </c>
+      <c r="W67">
+        <v>-8.2349999999999994</v>
+      </c>
+      <c r="X67">
+        <v>-18.260000000000002</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>65.792000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>98.418000000000006</v>
+      </c>
+      <c r="D68">
+        <v>839.91200000000003</v>
+      </c>
+      <c r="E68">
+        <v>363.80700000000002</v>
+      </c>
+      <c r="F68">
+        <v>279.56400000000002</v>
+      </c>
+      <c r="G68">
+        <v>444.61200000000002</v>
+      </c>
+      <c r="H68">
+        <v>2840.1979999999999</v>
+      </c>
+      <c r="I68">
+        <v>54.234000000000002</v>
+      </c>
+      <c r="J68">
+        <v>45</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>344.41</v>
+      </c>
+      <c r="O68">
+        <v>847.20699999999999</v>
+      </c>
+      <c r="P68">
+        <v>95</v>
+      </c>
+      <c r="Q68">
+        <v>-13.718</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1992.991</v>
+      </c>
+      <c r="U68">
+        <v>33.832999999999998</v>
+      </c>
+      <c r="V68">
+        <v>127.705</v>
+      </c>
+      <c r="W68">
+        <v>-8.234</v>
+      </c>
+      <c r="X68">
+        <v>-15.663</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>98.418000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>102.31399999999999</v>
+      </c>
+      <c r="D69">
+        <v>872.98699999999997</v>
+      </c>
+      <c r="E69">
+        <v>391.858</v>
+      </c>
+      <c r="F69">
+        <v>284.39800000000002</v>
+      </c>
+      <c r="G69">
+        <v>513.09500000000003</v>
+      </c>
+      <c r="H69">
+        <v>2956.17</v>
+      </c>
+      <c r="I69">
+        <v>59.701999999999998</v>
+      </c>
+      <c r="J69">
+        <v>45</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>355.649</v>
+      </c>
+      <c r="O69">
+        <v>869.154</v>
+      </c>
+      <c r="P69">
+        <v>95</v>
+      </c>
+      <c r="Q69">
+        <v>44.258000000000003</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2087.0160000000001</v>
+      </c>
+      <c r="U69">
+        <v>78.090999999999994</v>
+      </c>
+      <c r="V69">
+        <v>149.499</v>
+      </c>
+      <c r="W69">
+        <v>-8.2279999999999998</v>
+      </c>
+      <c r="X69">
+        <v>-9.1059999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>102.31399999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>197.25</v>
+      </c>
+      <c r="D70">
+        <v>891.11699999999996</v>
+      </c>
+      <c r="E70">
+        <v>394.16899999999998</v>
+      </c>
+      <c r="F70">
+        <v>270.36599999999999</v>
+      </c>
+      <c r="G70">
+        <v>584.65300000000002</v>
+      </c>
+      <c r="H70">
+        <v>3068.424</v>
+      </c>
+      <c r="I70">
+        <v>73.728999999999999</v>
+      </c>
+      <c r="J70">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>351.04899999999998</v>
+      </c>
+      <c r="O70">
+        <v>791.57</v>
+      </c>
+      <c r="P70">
+        <v>95</v>
+      </c>
+      <c r="Q70">
+        <v>49.371000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>19183</v>
+      </c>
+      <c r="T70">
+        <v>2276.8539999999998</v>
+      </c>
+      <c r="U70">
+        <v>127.462</v>
+      </c>
+      <c r="V70">
+        <v>148.28100000000001</v>
+      </c>
+      <c r="W70">
+        <v>-8.2279999999999998</v>
+      </c>
+      <c r="X70">
+        <v>-8.2279999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>197.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>109.333</v>
+      </c>
+      <c r="D71">
+        <v>925.02</v>
+      </c>
+      <c r="E71">
+        <v>412.93200000000002</v>
+      </c>
+      <c r="F71">
+        <v>278.98700000000002</v>
+      </c>
+      <c r="G71">
+        <v>615.45000000000005</v>
+      </c>
+      <c r="H71">
+        <v>3144.0039999999999</v>
+      </c>
+      <c r="I71">
+        <v>78.498000000000005</v>
+      </c>
+      <c r="J71">
+        <v>45</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-50</v>
+      </c>
+      <c r="N71">
+        <v>345.28500000000003</v>
+      </c>
+      <c r="O71">
+        <v>785.25300000000004</v>
+      </c>
+      <c r="P71">
+        <v>45</v>
+      </c>
+      <c r="Q71">
+        <v>32.475000000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2358.7510000000002</v>
+      </c>
+      <c r="U71">
+        <v>159.93700000000001</v>
+      </c>
+      <c r="V71">
+        <v>211.24700000000001</v>
+      </c>
+      <c r="W71">
+        <v>-10.695</v>
+      </c>
+      <c r="X71">
+        <v>-78.561000000000007</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>109.333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>163.434</v>
+      </c>
+      <c r="D72">
+        <v>1033.498</v>
+      </c>
+      <c r="E72">
+        <v>456.90600000000001</v>
+      </c>
+      <c r="F72">
+        <v>351.2</v>
+      </c>
+      <c r="G72">
+        <v>647.58500000000004</v>
+      </c>
+      <c r="H72">
+        <v>3321.0819999999999</v>
+      </c>
+      <c r="I72">
+        <v>81.668000000000006</v>
+      </c>
+      <c r="J72">
+        <v>45</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>366.36200000000002</v>
+      </c>
+      <c r="O72">
+        <v>839.03099999999995</v>
+      </c>
+      <c r="P72">
+        <v>45</v>
+      </c>
+      <c r="Q72">
+        <v>-19.366</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2482.0509999999999</v>
+      </c>
+      <c r="U72">
+        <v>140.571</v>
+      </c>
+      <c r="V72">
+        <v>213.44399999999999</v>
+      </c>
+      <c r="W72">
+        <v>-10.678000000000001</v>
+      </c>
+      <c r="X72">
+        <v>-41.28</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>163.434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>173.44200000000001</v>
+      </c>
+      <c r="D73">
+        <v>1058.2329999999999</v>
+      </c>
+      <c r="E73">
+        <v>466.45499999999998</v>
+      </c>
+      <c r="F73">
+        <v>360.57499999999999</v>
+      </c>
+      <c r="G73">
+        <v>696.31500000000005</v>
+      </c>
+      <c r="H73">
+        <v>3489.3119999999999</v>
+      </c>
+      <c r="I73">
+        <v>88.15</v>
+      </c>
+      <c r="J73">
+        <v>45</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>362.45699999999999</v>
+      </c>
+      <c r="O73">
+        <v>872.38</v>
+      </c>
+      <c r="P73">
+        <v>45</v>
+      </c>
+      <c r="Q73">
+        <v>36.896999999999998</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>20439</v>
+      </c>
+      <c r="T73">
+        <v>2616.9319999999998</v>
+      </c>
+      <c r="U73">
+        <v>177.46799999999999</v>
+      </c>
+      <c r="V73">
+        <v>250.727</v>
+      </c>
+      <c r="W73">
+        <v>-10.638</v>
+      </c>
+      <c r="X73">
+        <v>-39.832999999999998</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>173.44200000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>159.459</v>
+      </c>
+      <c r="D74">
+        <v>1026.944</v>
+      </c>
+      <c r="E74">
+        <v>427.56900000000002</v>
+      </c>
+      <c r="F74">
+        <v>352.76799999999997</v>
+      </c>
+      <c r="G74">
+        <v>706.22900000000004</v>
+      </c>
+      <c r="H74">
+        <v>3545.2829999999999</v>
+      </c>
+      <c r="I74">
+        <v>78.518000000000001</v>
+      </c>
+      <c r="J74">
+        <v>45</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>356.73200000000003</v>
+      </c>
+      <c r="O74">
+        <v>864.8</v>
+      </c>
+      <c r="P74">
+        <v>45</v>
+      </c>
+      <c r="Q74">
+        <v>12.814</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>21279</v>
+      </c>
+      <c r="T74">
+        <v>2680.4830000000002</v>
+      </c>
+      <c r="U74">
+        <v>190.28200000000001</v>
+      </c>
+      <c r="V74">
+        <v>224.69800000000001</v>
+      </c>
+      <c r="W74">
+        <v>-10.555</v>
+      </c>
+      <c r="X74">
+        <v>-97.230999999999995</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>159.459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>133.32300000000001</v>
+      </c>
+      <c r="D75">
+        <v>990.78200000000004</v>
+      </c>
+      <c r="E75">
+        <v>447.24200000000002</v>
+      </c>
+      <c r="F75">
+        <v>318.55500000000001</v>
+      </c>
+      <c r="G75">
+        <v>783.87800000000004</v>
+      </c>
+      <c r="H75">
+        <v>3704.0419999999999</v>
+      </c>
+      <c r="I75">
+        <v>79.397000000000006</v>
+      </c>
+      <c r="J75">
+        <v>45</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>358.15499999999997</v>
+      </c>
+      <c r="O75">
+        <v>933.67100000000005</v>
+      </c>
+      <c r="P75">
+        <v>114</v>
+      </c>
+      <c r="Q75">
+        <v>90.344999999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>21038</v>
+      </c>
+      <c r="T75">
+        <v>2770.3710000000001</v>
+      </c>
+      <c r="U75">
+        <v>280.62700000000001</v>
+      </c>
+      <c r="V75">
+        <v>206.17500000000001</v>
+      </c>
+      <c r="W75">
+        <v>-13.79</v>
+      </c>
+      <c r="X75">
+        <v>-45.366</v>
+      </c>
+      <c r="Y75">
+        <v>58.6</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>133.32300000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>174.072</v>
+      </c>
+      <c r="D76">
+        <v>1060.6659999999999</v>
+      </c>
+      <c r="E76">
+        <v>449.98399999999998</v>
+      </c>
+      <c r="F76">
+        <v>375.07100000000003</v>
+      </c>
+      <c r="G76">
+        <v>741.42</v>
+      </c>
+      <c r="H76">
+        <v>3758.703</v>
+      </c>
+      <c r="I76">
+        <v>85.125</v>
+      </c>
+      <c r="J76">
+        <v>45</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>386.10500000000002</v>
+      </c>
+      <c r="O76">
+        <v>960.21799999999996</v>
+      </c>
+      <c r="P76">
+        <v>113.444</v>
+      </c>
+      <c r="Q76">
+        <v>-51.667000000000002</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2798.4850000000001</v>
+      </c>
+      <c r="U76">
+        <v>228.96</v>
+      </c>
+      <c r="V76">
+        <v>255.708</v>
+      </c>
+      <c r="W76">
+        <v>-13.645</v>
+      </c>
+      <c r="X76">
+        <v>-148.249</v>
+      </c>
+      <c r="Y76">
+        <v>57.944000000000003</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>174.072</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>164.09899999999999</v>
+      </c>
+      <c r="D77">
+        <v>1048.4570000000001</v>
+      </c>
+      <c r="E77">
+        <v>425.85</v>
+      </c>
+      <c r="F77">
+        <v>366.50200000000001</v>
+      </c>
+      <c r="G77">
+        <v>806.97799999999995</v>
+      </c>
+      <c r="H77">
+        <v>3892.4180000000001</v>
+      </c>
+      <c r="I77">
+        <v>81.269000000000005</v>
+      </c>
+      <c r="J77">
+        <v>45</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>396.86200000000002</v>
+      </c>
+      <c r="O77">
+        <v>982.89</v>
+      </c>
+      <c r="P77">
+        <v>113.553</v>
+      </c>
+      <c r="Q77">
+        <v>93.325999999999993</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2909.5279999999998</v>
+      </c>
+      <c r="U77">
+        <v>322.286</v>
+      </c>
+      <c r="V77">
+        <v>285.63200000000001</v>
+      </c>
+      <c r="W77">
+        <v>-13.57</v>
+      </c>
+      <c r="X77">
+        <v>-54.183999999999997</v>
+      </c>
+      <c r="Y77">
+        <v>57.853000000000002</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>164.09899999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>144.024</v>
+      </c>
+      <c r="D78">
+        <v>1009.206</v>
+      </c>
+      <c r="E78">
+        <v>397.57900000000001</v>
+      </c>
+      <c r="F78">
+        <v>334.16800000000001</v>
+      </c>
+      <c r="G78">
+        <v>866.83399999999995</v>
+      </c>
+      <c r="H78">
+        <v>3995.5680000000002</v>
+      </c>
+      <c r="I78">
+        <v>70.254000000000005</v>
+      </c>
+      <c r="J78">
+        <v>45</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>366.08499999999998</v>
+      </c>
+      <c r="O78">
+        <v>914.851</v>
+      </c>
+      <c r="P78">
+        <v>111.5</v>
+      </c>
+      <c r="Q78">
+        <v>81.284999999999997</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>20105</v>
+      </c>
+      <c r="T78">
+        <v>3080.7170000000001</v>
+      </c>
+      <c r="U78">
+        <v>403.57100000000003</v>
+      </c>
+      <c r="V78">
+        <v>236.37299999999999</v>
+      </c>
+      <c r="W78">
+        <v>-13.547000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-49.161000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>56.1</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>144.024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>133.17699999999999</v>
+      </c>
+      <c r="D79">
+        <v>987.36400000000003</v>
+      </c>
+      <c r="E79">
+        <v>419.12799999999999</v>
+      </c>
+      <c r="F79">
+        <v>326.197</v>
+      </c>
+      <c r="G79">
+        <v>831.00599999999997</v>
+      </c>
+      <c r="H79">
+        <v>3934.9859999999999</v>
+      </c>
+      <c r="I79">
+        <v>55.097000000000001</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>428.29500000000002</v>
+      </c>
+      <c r="O79">
+        <v>918.93700000000001</v>
+      </c>
+      <c r="P79">
+        <v>45</v>
+      </c>
+      <c r="Q79">
+        <v>-46.598999999999997</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>19944</v>
+      </c>
+      <c r="T79">
+        <v>3016.049</v>
+      </c>
+      <c r="U79">
+        <v>356.97199999999998</v>
+      </c>
+      <c r="V79">
+        <v>204.018</v>
+      </c>
+      <c r="W79">
+        <v>-18.309999999999999</v>
+      </c>
+      <c r="X79">
+        <v>-199.94900000000001</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>133.17699999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>147.80500000000001</v>
+      </c>
+      <c r="D80">
+        <v>896.21</v>
+      </c>
+      <c r="E80">
+        <v>387.26</v>
+      </c>
+      <c r="F80">
+        <v>333.64699999999999</v>
+      </c>
+      <c r="G80">
+        <v>968.57</v>
+      </c>
+      <c r="H80">
+        <v>4080.0279999999998</v>
+      </c>
+      <c r="I80">
+        <v>51.256999999999998</v>
+      </c>
+      <c r="J80">
+        <v>99.923000000000002</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>494.17399999999998</v>
+      </c>
+      <c r="O80">
+        <v>1097.56</v>
+      </c>
+      <c r="P80">
+        <v>144.923</v>
+      </c>
+      <c r="Q80">
+        <v>161.65199999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>18930</v>
+      </c>
+      <c r="T80">
+        <v>2982.4679999999998</v>
+      </c>
+      <c r="U80">
+        <v>518.62400000000002</v>
+      </c>
+      <c r="V80">
+        <v>312.19799999999998</v>
+      </c>
+      <c r="W80">
+        <v>-17.582000000000001</v>
+      </c>
+      <c r="X80">
+        <v>-83.656000000000006</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>147.80500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>201.86799999999999</v>
+      </c>
+      <c r="D81">
+        <v>1058.1659999999999</v>
+      </c>
+      <c r="E81">
+        <v>453.346</v>
+      </c>
+      <c r="F81">
+        <v>410.21199999999999</v>
+      </c>
+      <c r="G81">
+        <v>1138.4960000000001</v>
+      </c>
+      <c r="H81">
+        <v>4273.6880000000001</v>
+      </c>
+      <c r="I81">
+        <v>59.228999999999999</v>
+      </c>
+      <c r="J81">
+        <v>99.927000000000007</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>449.28800000000001</v>
+      </c>
+      <c r="O81">
+        <v>1102.855</v>
+      </c>
+      <c r="P81">
+        <v>246.727</v>
+      </c>
+      <c r="Q81">
+        <v>-98.227999999999994</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>20644</v>
+      </c>
+      <c r="T81">
+        <v>3170.8330000000001</v>
+      </c>
+      <c r="U81">
+        <v>420.39600000000002</v>
+      </c>
+      <c r="V81">
+        <v>170.24199999999999</v>
+      </c>
+      <c r="W81">
+        <v>-17.579000000000001</v>
+      </c>
+      <c r="X81">
+        <v>-17.579000000000001</v>
+      </c>
+      <c r="Y81">
+        <v>89.5</v>
+      </c>
+      <c r="Z81">
+        <v>-205.30099999999999</v>
+      </c>
+      <c r="AA81">
+        <v>201.86799999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>189.83199999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1073.3889999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>444.65300000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>388.25900000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1243.3389999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>4369.41</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>68.510999999999996</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>99.930999999999997</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>373.13</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1043.1220000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>206.23099999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-18.966000000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>19779</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3326.288</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>401.43</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>246.566</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-17.552</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-82.317999999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>93.3</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-124.871</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>189.83199999999999</v>
       </c>
     </row>
